--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3671824.572462477</v>
+        <v>3669647.395496104</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8315314.745881541</v>
+        <v>8315314.745881537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>211919.2992144384</v>
+        <v>211919.2992144385</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.91464376220975</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,61 +750,61 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H3" t="n">
+      <c r="Y3" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>15.30273751513505</v>
@@ -865,19 +865,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.84140014930867</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,58 +981,58 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1063,61 +1063,61 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.94391759456928</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.3875692273843473</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>21.81976115797297</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="V10" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="W10" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="X10" t="n">
         <v>25.62029119463083</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4610888162667</v>
+        <v>332.4610888162666</v>
       </c>
       <c r="C11" t="n">
-        <v>315.0001389237937</v>
+        <v>315.0001389237936</v>
       </c>
       <c r="D11" t="n">
-        <v>304.4102887734691</v>
+        <v>304.410288773469</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6576172250479</v>
+        <v>331.6576172250478</v>
       </c>
       <c r="F11" t="n">
         <v>356.6032928944975</v>
       </c>
       <c r="G11" t="n">
-        <v>360.8115083754196</v>
+        <v>360.8115083754197</v>
       </c>
       <c r="H11" t="n">
-        <v>245.9995789379721</v>
+        <v>245.999578937972</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.61878822365303</v>
+        <v>62.61878822365297</v>
       </c>
       <c r="T11" t="n">
-        <v>154.3567167464921</v>
+        <v>154.356716746492</v>
       </c>
       <c r="U11" t="n">
-        <v>200.7354219572225</v>
+        <v>200.7354219572224</v>
       </c>
       <c r="V11" t="n">
         <v>277.479505622921</v>
@@ -1436,7 +1436,7 @@
         <v>319.4583478312551</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.9651858088397</v>
+        <v>335.9651858088396</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.5592273347234</v>
+        <v>129.5592273347233</v>
       </c>
       <c r="C13" t="n">
         <v>116.9740682514139</v>
       </c>
       <c r="D13" t="n">
-        <v>98.34272017099846</v>
+        <v>98.3427201709984</v>
       </c>
       <c r="E13" t="n">
-        <v>96.16120979935528</v>
+        <v>96.16120979935522</v>
       </c>
       <c r="F13" t="n">
-        <v>95.14829517571735</v>
+        <v>95.14829517571729</v>
       </c>
       <c r="G13" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H13" t="n">
-        <v>95.13047922991356</v>
+        <v>95.1304792299135</v>
       </c>
       <c r="I13" t="n">
-        <v>48.27220577792531</v>
+        <v>48.27220577792525</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93760236602547</v>
+        <v>41.93760236602542</v>
       </c>
       <c r="S13" t="n">
-        <v>140.7668576591773</v>
+        <v>140.7668576591772</v>
       </c>
       <c r="T13" t="n">
-        <v>169.5877118343941</v>
+        <v>169.587711834394</v>
       </c>
       <c r="U13" t="n">
         <v>235.9430621508088</v>
@@ -1591,10 +1591,10 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X13" t="n">
-        <v>175.4369025418233</v>
+        <v>175.4369025418232</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.3119005048809</v>
+        <v>168.3119005048808</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.61878822365297</v>
+        <v>62.61878822365303</v>
       </c>
       <c r="T14" t="n">
         <v>154.356716746492</v>
       </c>
       <c r="U14" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V14" t="n">
         <v>277.479505622921</v>
@@ -1704,7 +1704,7 @@
         <v>90.43676647209102</v>
       </c>
       <c r="I15" t="n">
-        <v>11.68563355505599</v>
+        <v>11.685633555056</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D16" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099842</v>
       </c>
       <c r="E16" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935523</v>
       </c>
       <c r="F16" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571731</v>
       </c>
       <c r="G16" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H16" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991353</v>
       </c>
       <c r="I16" t="n">
-        <v>48.27220577792525</v>
+        <v>48.27220577792527</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93760236602603</v>
+        <v>41.93760236602544</v>
       </c>
       <c r="S16" t="n">
         <v>140.7668576591772</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.4610888162666</v>
+        <v>332.4610888162667</v>
       </c>
       <c r="C17" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237937</v>
       </c>
       <c r="D17" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734691</v>
       </c>
       <c r="E17" t="n">
-        <v>331.6576172250478</v>
+        <v>331.6576172250479</v>
       </c>
       <c r="F17" t="n">
         <v>356.6032928944975</v>
       </c>
       <c r="G17" t="n">
-        <v>360.8115083754196</v>
+        <v>360.811508375419</v>
       </c>
       <c r="H17" t="n">
-        <v>245.999578937972</v>
+        <v>245.9995789379721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.61878822365297</v>
+        <v>62.618788223653</v>
       </c>
       <c r="T17" t="n">
-        <v>154.356716746492</v>
+        <v>154.3567167464921</v>
       </c>
       <c r="U17" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V17" t="n">
         <v>277.479505622921</v>
@@ -1910,7 +1910,7 @@
         <v>319.4583478312551</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.9651858088396</v>
+        <v>335.9651858088397</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>129.5592273347233</v>
+        <v>129.5592273347234</v>
       </c>
       <c r="C19" t="n">
         <v>116.9740682514139</v>
       </c>
       <c r="D19" t="n">
-        <v>98.34272017099912</v>
+        <v>98.34272017099845</v>
       </c>
       <c r="E19" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935495</v>
       </c>
       <c r="F19" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571734</v>
       </c>
       <c r="G19" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H19" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991355</v>
       </c>
       <c r="I19" t="n">
-        <v>48.27220577792525</v>
+        <v>48.27220577792529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93760236602542</v>
+        <v>41.93760236602546</v>
       </c>
       <c r="S19" t="n">
-        <v>140.7668576591772</v>
+        <v>140.7668576591773</v>
       </c>
       <c r="T19" t="n">
-        <v>169.587711834394</v>
+        <v>169.5877118343941</v>
       </c>
       <c r="U19" t="n">
         <v>235.9430621508088</v>
@@ -2065,10 +2065,10 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X19" t="n">
-        <v>175.4369025418232</v>
+        <v>175.4369025418233</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3119005048808</v>
+        <v>168.3119005048809</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4610888162666</v>
+        <v>332.4610888162667</v>
       </c>
       <c r="C20" t="n">
-        <v>315.0001389237936</v>
+        <v>315.0001389237937</v>
       </c>
       <c r="D20" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734691</v>
       </c>
       <c r="E20" t="n">
-        <v>331.6576172250478</v>
+        <v>331.6576172250479</v>
       </c>
       <c r="F20" t="n">
         <v>356.6032928944975</v>
@@ -2096,7 +2096,7 @@
         <v>360.8115083754196</v>
       </c>
       <c r="H20" t="n">
-        <v>245.999578937972</v>
+        <v>245.9995789379721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.61878822365352</v>
+        <v>62.61878822365301</v>
       </c>
       <c r="T20" t="n">
-        <v>154.356716746492</v>
+        <v>154.3567167464921</v>
       </c>
       <c r="U20" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V20" t="n">
         <v>277.479505622921</v>
@@ -2147,7 +2147,7 @@
         <v>319.4583478312551</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.9651858088396</v>
+        <v>335.9651858088397</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.5592273347233</v>
+        <v>129.5592273347234</v>
       </c>
       <c r="C22" t="n">
         <v>116.9740682514139</v>
       </c>
       <c r="D22" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099845</v>
       </c>
       <c r="E22" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935526</v>
       </c>
       <c r="F22" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571734</v>
       </c>
       <c r="G22" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H22" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991325</v>
       </c>
       <c r="I22" t="n">
-        <v>48.27220577792525</v>
+        <v>48.27220577792529</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93760236602542</v>
+        <v>41.93760236602546</v>
       </c>
       <c r="S22" t="n">
-        <v>140.7668576591772</v>
+        <v>140.7668576591773</v>
       </c>
       <c r="T22" t="n">
-        <v>169.587711834394</v>
+        <v>169.5877118343941</v>
       </c>
       <c r="U22" t="n">
         <v>235.9430621508088</v>
@@ -2302,10 +2302,10 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X22" t="n">
-        <v>175.4369025418232</v>
+        <v>175.4369025418233</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3119005048808</v>
+        <v>168.3119005048809</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332.4610888162666</v>
+        <v>332.4610888162667</v>
       </c>
       <c r="C23" t="n">
-        <v>315.0001389237942</v>
+        <v>315.0001389237937</v>
       </c>
       <c r="D23" t="n">
-        <v>304.410288773469</v>
+        <v>304.4102887734691</v>
       </c>
       <c r="E23" t="n">
-        <v>331.6576172250478</v>
+        <v>331.6576172250479</v>
       </c>
       <c r="F23" t="n">
         <v>356.6032928944975</v>
@@ -2333,7 +2333,7 @@
         <v>360.8115083754196</v>
       </c>
       <c r="H23" t="n">
-        <v>245.999578937972</v>
+        <v>245.9995789379721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.61878822365297</v>
+        <v>62.61878822365301</v>
       </c>
       <c r="T23" t="n">
-        <v>154.356716746492</v>
+        <v>154.3567167464921</v>
       </c>
       <c r="U23" t="n">
-        <v>200.7354219572224</v>
+        <v>200.7354219572225</v>
       </c>
       <c r="V23" t="n">
         <v>277.479505622921</v>
@@ -2384,7 +2384,7 @@
         <v>319.4583478312551</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.9651858088396</v>
+        <v>335.9651858088397</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>129.5592273347233</v>
+        <v>129.5592273347234</v>
       </c>
       <c r="C25" t="n">
         <v>116.9740682514139</v>
       </c>
       <c r="D25" t="n">
-        <v>98.3427201709984</v>
+        <v>98.34272017099845</v>
       </c>
       <c r="E25" t="n">
-        <v>96.16120979935522</v>
+        <v>96.16120979935526</v>
       </c>
       <c r="F25" t="n">
-        <v>95.14829517571729</v>
+        <v>95.14829517571734</v>
       </c>
       <c r="G25" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H25" t="n">
-        <v>95.1304792299135</v>
+        <v>95.13047922991355</v>
       </c>
       <c r="I25" t="n">
-        <v>48.27220577792588</v>
+        <v>48.27220577792529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93760236602542</v>
+        <v>41.93760236602546</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7668576591772</v>
+        <v>140.7668576591773</v>
       </c>
       <c r="T25" t="n">
-        <v>169.587711834394</v>
+        <v>169.5877118343941</v>
       </c>
       <c r="U25" t="n">
         <v>235.9430621508088</v>
@@ -2539,10 +2539,10 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X25" t="n">
-        <v>175.4369025418232</v>
+        <v>175.4369025418233</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3119005048808</v>
+        <v>168.3119005048809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>296.272331785186</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84308230374097</v>
+        <v>47.84308230374103</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>204.6294695937059</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0081748044363</v>
+        <v>251.0081748044364</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>15.81203323475331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>57.51638000097231</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.21035521323937</v>
       </c>
       <c r="S28" t="n">
         <v>191.0396105063912</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.21035521323937</v>
       </c>
       <c r="S31" t="n">
         <v>191.0396105063912</v>
@@ -3004,19 +3004,19 @@
         <v>219.860464681608</v>
       </c>
       <c r="U31" t="n">
-        <v>21.87447731306894</v>
+        <v>286.2158149980227</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>96.26905317112987</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.0644841755213</v>
+        <v>380.0644841755216</v>
       </c>
       <c r="C32" t="n">
-        <v>362.6035342830484</v>
+        <v>362.6035342830486</v>
       </c>
       <c r="D32" t="n">
-        <v>352.0136841327237</v>
+        <v>352.013684132724</v>
       </c>
       <c r="E32" t="n">
-        <v>379.2610125843025</v>
+        <v>379.2610125843028</v>
       </c>
       <c r="F32" t="n">
-        <v>404.2066882537522</v>
+        <v>404.2066882537525</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4149037346743</v>
+        <v>408.4149037346746</v>
       </c>
       <c r="H32" t="n">
-        <v>293.6029742972268</v>
+        <v>293.602974297227</v>
       </c>
       <c r="I32" t="n">
-        <v>45.17372481578181</v>
+        <v>45.17372481578205</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>110.2221835829077</v>
+        <v>110.2221835829079</v>
       </c>
       <c r="T32" t="n">
-        <v>201.9601121057467</v>
+        <v>201.960112105747</v>
       </c>
       <c r="U32" t="n">
-        <v>248.3388173164772</v>
+        <v>248.3388173164774</v>
       </c>
       <c r="V32" t="n">
-        <v>325.0829009821757</v>
+        <v>325.0829009821759</v>
       </c>
       <c r="W32" t="n">
-        <v>346.5716112294538</v>
+        <v>346.571611229454</v>
       </c>
       <c r="X32" t="n">
-        <v>367.0617431905098</v>
+        <v>367.0617431905101</v>
       </c>
       <c r="Y32" t="n">
-        <v>383.5685811680944</v>
+        <v>383.5685811680946</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.1626226939781</v>
+        <v>177.1626226939783</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>145.9461155302534</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>89.54099772528038</v>
       </c>
       <c r="S34" t="n">
-        <v>142.0869318555612</v>
+        <v>188.3702530184322</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1911071936488</v>
+        <v>217.191107193649</v>
       </c>
       <c r="U34" t="n">
-        <v>283.5464575100635</v>
+        <v>283.5464575100638</v>
       </c>
       <c r="V34" t="n">
-        <v>249.4682858358688</v>
+        <v>183.6131472815964</v>
       </c>
       <c r="W34" t="n">
-        <v>283.8536408486318</v>
+        <v>283.853640848632</v>
       </c>
       <c r="X34" t="n">
-        <v>223.0402979010779</v>
+        <v>223.0402979010782</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.9152958641356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3518,7 +3518,7 @@
         <v>360.8115083754196</v>
       </c>
       <c r="H38" t="n">
-        <v>245.9995789379714</v>
+        <v>245.9995789379721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.61878822365303</v>
+        <v>62.61878822365301</v>
       </c>
       <c r="T38" t="n">
-        <v>154.3567167464921</v>
+        <v>154.356716746492</v>
       </c>
       <c r="U38" t="n">
         <v>200.7354219572225</v>
@@ -3664,22 +3664,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D40" t="n">
-        <v>98.34272017099846</v>
+        <v>98.34272017099843</v>
       </c>
       <c r="E40" t="n">
-        <v>96.16120979935528</v>
+        <v>96.16120979935525</v>
       </c>
       <c r="F40" t="n">
-        <v>95.14829517571735</v>
+        <v>95.14829517571732</v>
       </c>
       <c r="G40" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H40" t="n">
-        <v>95.13047922991356</v>
+        <v>95.13047922991353</v>
       </c>
       <c r="I40" t="n">
-        <v>48.27220577792531</v>
+        <v>48.27220577792529</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93760236602547</v>
+        <v>41.93760236602545</v>
       </c>
       <c r="S40" t="n">
-        <v>140.7668576591773</v>
+        <v>140.7668576591772</v>
       </c>
       <c r="T40" t="n">
         <v>169.5877118343941</v>
@@ -3724,7 +3724,7 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X40" t="n">
-        <v>175.4369025418233</v>
+        <v>175.4369025418232</v>
       </c>
       <c r="Y40" t="n">
         <v>168.3119005048809</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.4610888162667</v>
+        <v>332.4610888162666</v>
       </c>
       <c r="C41" t="n">
         <v>315.0001389237937</v>
       </c>
       <c r="D41" t="n">
-        <v>304.4102887734691</v>
+        <v>304.4102887734692</v>
       </c>
       <c r="E41" t="n">
-        <v>331.6576172250479</v>
+        <v>331.6576172250478</v>
       </c>
       <c r="F41" t="n">
         <v>356.6032928944975</v>
@@ -3755,7 +3755,7 @@
         <v>360.8115083754196</v>
       </c>
       <c r="H41" t="n">
-        <v>245.9995789379721</v>
+        <v>245.999578937972</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.61878822365303</v>
+        <v>62.618788223653</v>
       </c>
       <c r="T41" t="n">
-        <v>154.3567167464921</v>
+        <v>154.356716746492</v>
       </c>
       <c r="U41" t="n">
         <v>200.7354219572225</v>
@@ -3898,25 +3898,25 @@
         <v>129.5592273347234</v>
       </c>
       <c r="C43" t="n">
-        <v>116.9740682514132</v>
+        <v>116.9740682514139</v>
       </c>
       <c r="D43" t="n">
-        <v>98.34272017099846</v>
+        <v>98.34272017099843</v>
       </c>
       <c r="E43" t="n">
-        <v>96.16120979935528</v>
+        <v>96.16120979935525</v>
       </c>
       <c r="F43" t="n">
-        <v>95.14829517571735</v>
+        <v>95.14829517571732</v>
       </c>
       <c r="G43" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H43" t="n">
-        <v>95.13047922991356</v>
+        <v>95.13047922991353</v>
       </c>
       <c r="I43" t="n">
-        <v>48.27220577792531</v>
+        <v>48.27220577792528</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93760236602547</v>
+        <v>41.93760236602544</v>
       </c>
       <c r="S43" t="n">
-        <v>140.7668576591773</v>
+        <v>140.7668576591772</v>
       </c>
       <c r="T43" t="n">
         <v>169.5877118343941</v>
@@ -3961,7 +3961,7 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X43" t="n">
-        <v>175.4369025418233</v>
+        <v>175.4369025418232</v>
       </c>
       <c r="Y43" t="n">
         <v>168.3119005048809</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.4610888162667</v>
+        <v>332.4610888162666</v>
       </c>
       <c r="C44" t="n">
         <v>315.0001389237937</v>
       </c>
       <c r="D44" t="n">
-        <v>304.4102887734691</v>
+        <v>304.410288773469</v>
       </c>
       <c r="E44" t="n">
-        <v>331.6576172250479</v>
+        <v>331.6576172250481</v>
       </c>
       <c r="F44" t="n">
         <v>356.6032928944975</v>
@@ -3992,7 +3992,7 @@
         <v>360.8115083754196</v>
       </c>
       <c r="H44" t="n">
-        <v>245.9995789379721</v>
+        <v>245.999578937972</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.61878822365262</v>
+        <v>62.618788223653</v>
       </c>
       <c r="T44" t="n">
-        <v>154.3567167464921</v>
+        <v>154.356716746492</v>
       </c>
       <c r="U44" t="n">
         <v>200.7354219572225</v>
@@ -4138,22 +4138,22 @@
         <v>116.9740682514139</v>
       </c>
       <c r="D46" t="n">
-        <v>98.34272017099846</v>
+        <v>98.34272017099843</v>
       </c>
       <c r="E46" t="n">
-        <v>96.16120979935528</v>
+        <v>96.16120979935525</v>
       </c>
       <c r="F46" t="n">
-        <v>95.14829517571735</v>
+        <v>95.14829517571732</v>
       </c>
       <c r="G46" t="n">
         <v>115.8259632726617</v>
       </c>
       <c r="H46" t="n">
-        <v>95.13047922991356</v>
+        <v>95.13047922991342</v>
       </c>
       <c r="I46" t="n">
-        <v>48.27220577792531</v>
+        <v>48.27220577792528</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93760236602468</v>
+        <v>41.93760236602544</v>
       </c>
       <c r="S46" t="n">
-        <v>140.7668576591773</v>
+        <v>140.7668576591772</v>
       </c>
       <c r="T46" t="n">
         <v>169.5877118343941</v>
@@ -4198,7 +4198,7 @@
         <v>236.2502454893771</v>
       </c>
       <c r="X46" t="n">
-        <v>175.4369025418233</v>
+        <v>175.4369025418232</v>
       </c>
       <c r="Y46" t="n">
         <v>168.3119005048809</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L2" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M2" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N2" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O2" t="n">
         <v>46.0612399205565</v>
@@ -4352,28 +4352,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R2" t="n">
-        <v>44.20882949099123</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S2" t="n">
-        <v>44.20882949099123</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="T2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="U2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="V2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="W2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.35028351804213</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C3" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D3" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E3" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F3" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L3" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16.37392914119451</v>
+      </c>
+      <c r="O3" t="n">
         <v>31.52363928117821</v>
-      </c>
-      <c r="M3" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="N3" t="n">
-        <v>46.0612399205565</v>
-      </c>
-      <c r="O3" t="n">
-        <v>46.0612399205565</v>
       </c>
       <c r="P3" t="n">
         <v>46.0612399205565</v>
@@ -4431,28 +4431,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W3" t="n">
-        <v>48.35028351804213</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X3" t="n">
-        <v>48.35028351804213</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.35028351804213</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K4" t="n">
         <v>1.224219001210804</v>
@@ -4495,43 +4495,43 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M4" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.00470940373054</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R4" t="n">
-        <v>27.54739878238201</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="S4" t="n">
-        <v>12.09008816103347</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T4" t="n">
-        <v>12.09008816103347</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U4" t="n">
-        <v>12.09008816103347</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V4" t="n">
-        <v>12.09008816103347</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.09008816103347</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C5" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D5" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>44.20882949099123</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>28.75151886964269</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J5" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L5" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M5" t="n">
         <v>30.9115297805728</v>
       </c>
       <c r="N5" t="n">
-        <v>46.0612399205565</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O5" t="n">
         <v>46.0612399205565</v>
@@ -4586,31 +4586,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V5" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W5" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="D6" t="n">
-        <v>45.75363943919166</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="E6" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
@@ -4650,7 +4650,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L6" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M6" t="n">
         <v>46.0612399205565</v>
@@ -4668,10 +4668,10 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
         <v>45.75363943919166</v>
@@ -4680,16 +4680,16 @@
         <v>45.75363943919166</v>
       </c>
       <c r="V6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.75363943919166</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I7" t="n">
         <v>1.224219001210804</v>
@@ -4729,7 +4729,7 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M7" t="n">
         <v>30.9115297805728</v>
@@ -4747,28 +4747,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.631385380739</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="C8" t="n">
-        <v>40.631385380739</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="D8" t="n">
-        <v>40.631385380739</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="E8" t="n">
-        <v>40.631385380739</v>
+        <v>50.33151668090109</v>
       </c>
       <c r="F8" t="n">
-        <v>29.57692316400236</v>
+        <v>43.38601593169762</v>
       </c>
       <c r="G8" t="n">
-        <v>14.11961254265382</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H8" t="n">
-        <v>14.11961254265382</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
-        <v>14.11961254265382</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M8" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N8" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>66.51046739551762</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T8" t="n">
-        <v>66.51046739551762</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U8" t="n">
-        <v>40.631385380739</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V8" t="n">
-        <v>40.631385380739</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W8" t="n">
-        <v>40.631385380739</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X8" t="n">
-        <v>40.631385380739</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.631385380739</v>
+        <v>50.33151668090109</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6828379631348</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>2.80375594835618</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>26.38889993046976</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M9" t="n">
-        <v>26.38889993046976</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N9" t="n">
-        <v>51.75298821315428</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O9" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P9" t="n">
         <v>102.4811647785233</v>
@@ -4914,19 +4914,19 @@
         <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>54.56191997791342</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V9" t="n">
-        <v>54.56191997791342</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W9" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X9" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.56191997791342</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4984,19 +4984,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S10" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T10" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U10" t="n">
-        <v>79.68686933990632</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V10" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W10" t="n">
         <v>27.92870531034908</v>
@@ -5018,7 +5018,7 @@
         <v>2014.144805759366</v>
       </c>
       <c r="C11" t="n">
-        <v>1695.962847250484</v>
+        <v>1695.962847250483</v>
       </c>
       <c r="D11" t="n">
         <v>1388.477707075262</v>
@@ -5027,31 +5027,31 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F11" t="n">
-        <v>693.2646665504687</v>
+        <v>693.264666550469</v>
       </c>
       <c r="G11" t="n">
         <v>328.8085974843884</v>
       </c>
       <c r="H11" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="I11" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J11" t="n">
-        <v>255.5462520416941</v>
+        <v>422.9519010620472</v>
       </c>
       <c r="K11" t="n">
-        <v>889.8012016079839</v>
+        <v>911.1347486573861</v>
       </c>
       <c r="L11" t="n">
-        <v>1315.442576341341</v>
+        <v>1336.776123390743</v>
       </c>
       <c r="M11" t="n">
-        <v>1820.720055489091</v>
+        <v>1842.053602538494</v>
       </c>
       <c r="N11" t="n">
-        <v>2338.787260879626</v>
+        <v>2360.120807929028</v>
       </c>
       <c r="O11" t="n">
         <v>2835.981718075492</v>
@@ -5060,31 +5060,31 @@
         <v>3526.197715685056</v>
       </c>
       <c r="Q11" t="n">
-        <v>3967.299425377211</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R11" t="n">
         <v>4016.208715735981</v>
       </c>
       <c r="S11" t="n">
-        <v>3952.957414499967</v>
+        <v>3952.957414499968</v>
       </c>
       <c r="T11" t="n">
-        <v>3797.04153899846</v>
+        <v>3797.041538998461</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.278486516419</v>
+        <v>3594.278486516418</v>
       </c>
       <c r="V11" t="n">
         <v>3313.996157604377</v>
       </c>
       <c r="W11" t="n">
-        <v>3012.008060765792</v>
+        <v>3012.008060765791</v>
       </c>
       <c r="X11" t="n">
         <v>2689.322860936241</v>
       </c>
       <c r="Y11" t="n">
-        <v>2349.964087391959</v>
+        <v>2349.964087391958</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>625.7010695045412</v>
       </c>
       <c r="E12" t="n">
-        <v>466.4636144990857</v>
+        <v>466.4636144990858</v>
       </c>
       <c r="F12" t="n">
         <v>319.9290565259707</v>
@@ -5112,31 +5112,31 @@
         <v>183.4781137360802</v>
       </c>
       <c r="H12" t="n">
-        <v>92.12784457235192</v>
+        <v>92.12784457235193</v>
       </c>
       <c r="I12" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J12" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605085</v>
       </c>
       <c r="K12" t="n">
-        <v>515.0593379435489</v>
+        <v>390.2292129565443</v>
       </c>
       <c r="L12" t="n">
-        <v>863.0640293454982</v>
+        <v>738.2339043584935</v>
       </c>
       <c r="M12" t="n">
-        <v>1288.525958062975</v>
+        <v>1163.69583307597</v>
       </c>
       <c r="N12" t="n">
-        <v>1739.65724294787</v>
+        <v>1614.827117960865</v>
       </c>
       <c r="O12" t="n">
-        <v>2130.134437768417</v>
+        <v>2005.304312781412</v>
       </c>
       <c r="P12" t="n">
-        <v>2424.193745446221</v>
+        <v>2299.363620459217</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.445327809855</v>
@@ -5176,34 +5176,34 @@
         <v>752.9049234844016</v>
       </c>
       <c r="C13" t="n">
-        <v>634.7492989880238</v>
+        <v>634.749298988024</v>
       </c>
       <c r="D13" t="n">
-        <v>535.4132180072173</v>
+        <v>535.4132180072174</v>
       </c>
       <c r="E13" t="n">
-        <v>438.2806828563535</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F13" t="n">
-        <v>342.1712937899723</v>
+        <v>342.1712937899725</v>
       </c>
       <c r="G13" t="n">
-        <v>225.1753712923342</v>
+        <v>225.1753712923344</v>
       </c>
       <c r="H13" t="n">
-        <v>129.0839781308058</v>
+        <v>129.0839781308057</v>
       </c>
       <c r="I13" t="n">
-        <v>80.32417431471961</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J13" t="n">
-        <v>170.1137921761064</v>
+        <v>170.1137921761066</v>
       </c>
       <c r="K13" t="n">
-        <v>415.4851382890593</v>
+        <v>415.4851382890595</v>
       </c>
       <c r="L13" t="n">
-        <v>771.0839456496153</v>
+        <v>771.0839456496151</v>
       </c>
       <c r="M13" t="n">
         <v>1153.696664366584</v>
@@ -5215,13 +5215,13 @@
         <v>1872.727225651456</v>
       </c>
       <c r="P13" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777436</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492306</v>
       </c>
       <c r="R13" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981169</v>
       </c>
       <c r="S13" t="n">
         <v>2083.161428870888</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2014.144805759365</v>
+        <v>2014.144805759366</v>
       </c>
       <c r="C14" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.477707075262</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E14" t="n">
         <v>1053.470012908547</v>
       </c>
       <c r="F14" t="n">
-        <v>693.2646665504683</v>
+        <v>693.2646665504691</v>
       </c>
       <c r="G14" t="n">
         <v>328.8085974843884</v>
       </c>
       <c r="H14" t="n">
-        <v>80.3241743147196</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="I14" t="n">
-        <v>80.3241743147196</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J14" t="n">
-        <v>422.9519010620472</v>
+        <v>422.9519010620471</v>
       </c>
       <c r="K14" t="n">
-        <v>736.3028921828839</v>
+        <v>796.7420145792903</v>
       </c>
       <c r="L14" t="n">
-        <v>1575.428869321187</v>
+        <v>1222.383389312647</v>
       </c>
       <c r="M14" t="n">
-        <v>2080.706348468937</v>
+        <v>1727.660868460398</v>
       </c>
       <c r="N14" t="n">
-        <v>2888.893369772101</v>
+        <v>2678.701529018796</v>
       </c>
       <c r="O14" t="n">
-        <v>3364.754279918564</v>
+        <v>3154.56243916526</v>
       </c>
       <c r="P14" t="n">
-        <v>3736.389556438361</v>
+        <v>3526.197715685056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3967.299425377211</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R14" t="n">
-        <v>4016.20871573598</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S14" t="n">
-        <v>3952.957414499967</v>
+        <v>3952.957414499968</v>
       </c>
       <c r="T14" t="n">
-        <v>3797.04153899846</v>
+        <v>3797.041538998461</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.278486516417</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V14" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604377</v>
       </c>
       <c r="W14" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765792</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936241</v>
       </c>
       <c r="Y14" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>625.7010695045412</v>
       </c>
       <c r="E15" t="n">
-        <v>466.4636144990857</v>
+        <v>466.4636144990858</v>
       </c>
       <c r="F15" t="n">
         <v>319.9290565259707</v>
       </c>
       <c r="G15" t="n">
-        <v>183.4781137360802</v>
+        <v>183.4781137360803</v>
       </c>
       <c r="H15" t="n">
-        <v>92.1278445723519</v>
+        <v>92.12784457235195</v>
       </c>
       <c r="I15" t="n">
-        <v>80.3241743147196</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J15" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605084</v>
       </c>
       <c r="K15" t="n">
-        <v>515.0593379435489</v>
+        <v>390.2292129565442</v>
       </c>
       <c r="L15" t="n">
-        <v>863.0640293454982</v>
+        <v>866.6639484000229</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.525958062975</v>
+        <v>1292.125877117499</v>
       </c>
       <c r="N15" t="n">
-        <v>1739.65724294787</v>
+        <v>1743.257162002394</v>
       </c>
       <c r="O15" t="n">
-        <v>2130.134437768417</v>
+        <v>2133.734356822941</v>
       </c>
       <c r="P15" t="n">
-        <v>2424.193745446221</v>
+        <v>2427.793664500746</v>
       </c>
       <c r="Q15" t="n">
         <v>2574.445327809855</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.9049234844017</v>
+        <v>752.9049234844016</v>
       </c>
       <c r="C16" t="n">
-        <v>634.7492989880241</v>
+        <v>634.749298988024</v>
       </c>
       <c r="D16" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072174</v>
       </c>
       <c r="E16" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F16" t="n">
-        <v>342.1712937899725</v>
+        <v>342.1712937899724</v>
       </c>
       <c r="G16" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923343</v>
       </c>
       <c r="H16" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308055</v>
       </c>
       <c r="I16" t="n">
-        <v>80.3241743147196</v>
+        <v>80.32417431471963</v>
       </c>
       <c r="J16" t="n">
-        <v>170.1137921761066</v>
+        <v>170.1137921761065</v>
       </c>
       <c r="K16" t="n">
-        <v>415.4851382890595</v>
+        <v>415.4851382890593</v>
       </c>
       <c r="L16" t="n">
-        <v>771.0839456496155</v>
+        <v>771.0839456496152</v>
       </c>
       <c r="M16" t="n">
-        <v>1153.696664366585</v>
+        <v>1153.696664366584</v>
       </c>
       <c r="N16" t="n">
-        <v>1533.829744196396</v>
+        <v>1533.829744196395</v>
       </c>
       <c r="O16" t="n">
-        <v>1872.727225651456</v>
+        <v>1872.727225651455</v>
       </c>
       <c r="P16" t="n">
-        <v>2146.375055777436</v>
+        <v>2146.375055777435</v>
       </c>
       <c r="Q16" t="n">
-        <v>2267.711388492306</v>
+        <v>2267.711388492305</v>
       </c>
       <c r="R16" t="n">
         <v>2225.350173981168</v>
@@ -5464,13 +5464,13 @@
         <v>2083.161428870888</v>
       </c>
       <c r="T16" t="n">
-        <v>1911.860709846248</v>
+        <v>1911.860709846247</v>
       </c>
       <c r="U16" t="n">
         <v>1673.53438444139</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.630454667033</v>
+        <v>1469.630454667032</v>
       </c>
       <c r="W16" t="n">
         <v>1230.993843061601</v>
@@ -5479,7 +5479,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.7728298831122</v>
+        <v>883.7728298831121</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2014.144805759366</v>
+        <v>2014.144805759365</v>
       </c>
       <c r="C17" t="n">
-        <v>1695.962847250484</v>
+        <v>1695.962847250483</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.477707075263</v>
+        <v>1388.477707075262</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.470012908548</v>
+        <v>1053.470012908547</v>
       </c>
       <c r="F17" t="n">
-        <v>693.2646665504694</v>
+        <v>693.2646665504682</v>
       </c>
       <c r="G17" t="n">
         <v>328.8085974843884</v>
@@ -5516,28 +5516,28 @@
         <v>422.9519010620472</v>
       </c>
       <c r="K17" t="n">
-        <v>846.0754929831339</v>
+        <v>1057.206850628337</v>
       </c>
       <c r="L17" t="n">
-        <v>1271.716867716491</v>
+        <v>1482.848225361694</v>
       </c>
       <c r="M17" t="n">
-        <v>1776.994346864241</v>
+        <v>2370.826164381567</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.061552254776</v>
+        <v>2888.893369772102</v>
       </c>
       <c r="O17" t="n">
-        <v>2770.922462401239</v>
+        <v>3364.754279918565</v>
       </c>
       <c r="P17" t="n">
-        <v>3461.138460010804</v>
+        <v>3736.389556438362</v>
       </c>
       <c r="Q17" t="n">
-        <v>3902.24016970296</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R17" t="n">
-        <v>4016.208715735982</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S17" t="n">
         <v>3952.957414499968</v>
@@ -5546,19 +5546,19 @@
         <v>3797.041538998461</v>
       </c>
       <c r="U17" t="n">
-        <v>3594.278486516419</v>
+        <v>3594.278486516418</v>
       </c>
       <c r="V17" t="n">
-        <v>3313.996157604377</v>
+        <v>3313.996157604376</v>
       </c>
       <c r="W17" t="n">
-        <v>3012.008060765792</v>
+        <v>3012.008060765791</v>
       </c>
       <c r="X17" t="n">
-        <v>2689.322860936241</v>
+        <v>2689.32286093624</v>
       </c>
       <c r="Y17" t="n">
-        <v>2349.964087391959</v>
+        <v>2349.964087391958</v>
       </c>
     </row>
     <row r="18">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>752.9049234844024</v>
+        <v>752.9049234844017</v>
       </c>
       <c r="C19" t="n">
-        <v>634.7492989880247</v>
+        <v>634.749298988024</v>
       </c>
       <c r="D19" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072174</v>
       </c>
       <c r="E19" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563538</v>
       </c>
       <c r="F19" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899727</v>
       </c>
       <c r="G19" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923346</v>
       </c>
       <c r="H19" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308058</v>
       </c>
       <c r="I19" t="n">
         <v>80.32417431471963</v>
       </c>
       <c r="J19" t="n">
-        <v>170.1137921761066</v>
+        <v>170.1137921761065</v>
       </c>
       <c r="K19" t="n">
-        <v>415.4851382890595</v>
+        <v>415.4851382890594</v>
       </c>
       <c r="L19" t="n">
-        <v>771.0839456496155</v>
+        <v>771.0839456496154</v>
       </c>
       <c r="M19" t="n">
-        <v>1153.696664366585</v>
+        <v>1153.696664366584</v>
       </c>
       <c r="N19" t="n">
         <v>1533.829744196396</v>
@@ -5698,25 +5698,25 @@
         <v>2225.350173981169</v>
       </c>
       <c r="S19" t="n">
-        <v>2083.161428870889</v>
+        <v>2083.161428870888</v>
       </c>
       <c r="T19" t="n">
         <v>1911.860709846248</v>
       </c>
       <c r="U19" t="n">
-        <v>1673.534384441391</v>
+        <v>1673.53438444139</v>
       </c>
       <c r="V19" t="n">
         <v>1469.630454667033</v>
       </c>
       <c r="W19" t="n">
-        <v>1230.993843061602</v>
+        <v>1230.993843061601</v>
       </c>
       <c r="X19" t="n">
-        <v>1053.784850595114</v>
+        <v>1053.784850595113</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.7728298831129</v>
+        <v>883.7728298831122</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F20" t="n">
-        <v>693.2646665504687</v>
+        <v>693.2646665504685</v>
       </c>
       <c r="G20" t="n">
         <v>328.8085974843884</v>
@@ -5753,28 +5753,28 @@
         <v>255.5462520416942</v>
       </c>
       <c r="K20" t="n">
-        <v>889.8012016079839</v>
+        <v>744.334409960574</v>
       </c>
       <c r="L20" t="n">
-        <v>1315.442576341341</v>
+        <v>1169.975784693931</v>
       </c>
       <c r="M20" t="n">
-        <v>1820.720055489091</v>
+        <v>1675.253263841681</v>
       </c>
       <c r="N20" t="n">
-        <v>2338.787260879626</v>
+        <v>2193.320469232216</v>
       </c>
       <c r="O20" t="n">
-        <v>2814.64817102609</v>
+        <v>3046.173558828797</v>
       </c>
       <c r="P20" t="n">
-        <v>3461.138460010804</v>
+        <v>3736.389556438362</v>
       </c>
       <c r="Q20" t="n">
-        <v>3902.24016970296</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R20" t="n">
-        <v>4016.208715735982</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S20" t="n">
         <v>3952.957414499968</v>
@@ -5829,19 +5829,19 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J21" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605085</v>
       </c>
       <c r="K21" t="n">
-        <v>515.0593379435491</v>
+        <v>390.2292129565443</v>
       </c>
       <c r="L21" t="n">
-        <v>863.0640293454983</v>
+        <v>738.2339043584935</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.525958062975</v>
+        <v>1292.125877117499</v>
       </c>
       <c r="N21" t="n">
-        <v>1739.65724294787</v>
+        <v>1743.257162002394</v>
       </c>
       <c r="O21" t="n">
         <v>2133.734356822941</v>
@@ -5887,52 +5887,52 @@
         <v>752.9049234844017</v>
       </c>
       <c r="C22" t="n">
-        <v>634.7492989880241</v>
+        <v>634.749298988024</v>
       </c>
       <c r="D22" t="n">
-        <v>535.4132180072176</v>
+        <v>535.4132180072174</v>
       </c>
       <c r="E22" t="n">
-        <v>438.2806828563537</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F22" t="n">
-        <v>342.1712937899726</v>
+        <v>342.1712937899724</v>
       </c>
       <c r="G22" t="n">
-        <v>225.1753712923345</v>
+        <v>225.1753712923343</v>
       </c>
       <c r="H22" t="n">
-        <v>129.0839781308057</v>
+        <v>129.0839781308058</v>
       </c>
       <c r="I22" t="n">
         <v>80.32417431471963</v>
       </c>
       <c r="J22" t="n">
-        <v>170.1137921761066</v>
+        <v>170.1137921761065</v>
       </c>
       <c r="K22" t="n">
-        <v>415.4851382890595</v>
+        <v>415.4851382890594</v>
       </c>
       <c r="L22" t="n">
-        <v>771.0839456496155</v>
+        <v>771.0839456496154</v>
       </c>
       <c r="M22" t="n">
-        <v>1153.696664366585</v>
+        <v>1153.696664366584</v>
       </c>
       <c r="N22" t="n">
         <v>1533.829744196396</v>
       </c>
       <c r="O22" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P22" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777436</v>
       </c>
       <c r="Q22" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492306</v>
       </c>
       <c r="R22" t="n">
-        <v>2225.350173981168</v>
+        <v>2225.350173981169</v>
       </c>
       <c r="S22" t="n">
         <v>2083.161428870888</v>
@@ -5966,7 +5966,7 @@
         <v>2014.144805759366</v>
       </c>
       <c r="C23" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D23" t="n">
         <v>1388.477707075262</v>
@@ -5975,7 +5975,7 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F23" t="n">
-        <v>693.2646665504687</v>
+        <v>693.264666550469</v>
       </c>
       <c r="G23" t="n">
         <v>328.8085974843884</v>
@@ -5987,31 +5987,31 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J23" t="n">
-        <v>422.9519010620472</v>
+        <v>316.5906847616409</v>
       </c>
       <c r="K23" t="n">
-        <v>736.3028921828839</v>
+        <v>629.9416758824775</v>
       </c>
       <c r="L23" t="n">
-        <v>1161.944266916241</v>
+        <v>1055.583050615835</v>
       </c>
       <c r="M23" t="n">
-        <v>2112.240144221896</v>
+        <v>1560.860529763585</v>
       </c>
       <c r="N23" t="n">
-        <v>2630.30734961243</v>
+        <v>2511.901190321984</v>
       </c>
       <c r="O23" t="n">
-        <v>3106.168259758894</v>
+        <v>3364.754279918565</v>
       </c>
       <c r="P23" t="n">
-        <v>3477.80353627869</v>
+        <v>3736.389556438362</v>
       </c>
       <c r="Q23" t="n">
-        <v>3902.24016970296</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R23" t="n">
-        <v>4016.208715735982</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S23" t="n">
         <v>3952.957414499968</v>
@@ -6066,25 +6066,25 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J24" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605085</v>
       </c>
       <c r="K24" t="n">
-        <v>518.6592569980735</v>
+        <v>390.2292129565443</v>
       </c>
       <c r="L24" t="n">
-        <v>866.6639484000227</v>
+        <v>738.2339043584935</v>
       </c>
       <c r="M24" t="n">
-        <v>1292.125877117499</v>
+        <v>1163.69583307597</v>
       </c>
       <c r="N24" t="n">
-        <v>1743.257162002394</v>
+        <v>1614.827117960865</v>
       </c>
       <c r="O24" t="n">
-        <v>2133.734356822941</v>
+        <v>2005.304312781412</v>
       </c>
       <c r="P24" t="n">
-        <v>2427.793664500746</v>
+        <v>2299.363620459217</v>
       </c>
       <c r="Q24" t="n">
         <v>2574.445327809855</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>752.9049234844024</v>
+        <v>752.904923484402</v>
       </c>
       <c r="C25" t="n">
-        <v>634.7492989880247</v>
+        <v>634.7492989880243</v>
       </c>
       <c r="D25" t="n">
-        <v>535.4132180072182</v>
+        <v>535.4132180072178</v>
       </c>
       <c r="E25" t="n">
-        <v>438.2806828563544</v>
+        <v>438.2806828563538</v>
       </c>
       <c r="F25" t="n">
-        <v>342.1712937899732</v>
+        <v>342.1712937899727</v>
       </c>
       <c r="G25" t="n">
-        <v>225.1753712923352</v>
+        <v>225.1753712923346</v>
       </c>
       <c r="H25" t="n">
-        <v>129.0839781308064</v>
+        <v>129.0839781308058</v>
       </c>
       <c r="I25" t="n">
         <v>80.32417431471963</v>
       </c>
       <c r="J25" t="n">
-        <v>170.1137921761066</v>
+        <v>170.1137921761065</v>
       </c>
       <c r="K25" t="n">
-        <v>415.4851382890595</v>
+        <v>415.4851382890594</v>
       </c>
       <c r="L25" t="n">
-        <v>771.0839456496155</v>
+        <v>771.0839456496154</v>
       </c>
       <c r="M25" t="n">
-        <v>1153.696664366585</v>
+        <v>1153.696664366584</v>
       </c>
       <c r="N25" t="n">
         <v>1533.829744196396</v>
@@ -6190,7 +6190,7 @@
         <v>1053.784850595114</v>
       </c>
       <c r="Y25" t="n">
-        <v>883.7728298831129</v>
+        <v>883.7728298831125</v>
       </c>
     </row>
     <row r="26">
@@ -6215,49 +6215,49 @@
         <v>858.647112109632</v>
       </c>
       <c r="G26" t="n">
-        <v>443.4104846120223</v>
+        <v>443.4104846120224</v>
       </c>
       <c r="H26" t="n">
-        <v>144.1455030108244</v>
+        <v>144.1455030108245</v>
       </c>
       <c r="I26" t="n">
-        <v>95.81915724946987</v>
+        <v>95.8191572494699</v>
       </c>
       <c r="J26" t="n">
-        <v>438.4468839967975</v>
+        <v>271.0412349764445</v>
       </c>
       <c r="K26" t="n">
-        <v>1072.701833563087</v>
+        <v>584.3922260972811</v>
       </c>
       <c r="L26" t="n">
-        <v>1669.473835003885</v>
+        <v>1010.033600830638</v>
       </c>
       <c r="M26" t="n">
-        <v>2174.751314151636</v>
+        <v>1960.329478136293</v>
       </c>
       <c r="N26" t="n">
-        <v>2692.81851954217</v>
+        <v>2757.877775216424</v>
       </c>
       <c r="O26" t="n">
-        <v>3545.671609138752</v>
+        <v>3610.730864813006</v>
       </c>
       <c r="P26" t="n">
-        <v>4235.887606748316</v>
+        <v>4300.94686242257</v>
       </c>
       <c r="Q26" t="n">
-        <v>4676.989316440471</v>
+        <v>4742.048572114725</v>
       </c>
       <c r="R26" t="n">
-        <v>4790.957862473493</v>
+        <v>4790.957862473495</v>
       </c>
       <c r="S26" t="n">
-        <v>4676.926002805951</v>
+        <v>4676.926002805953</v>
       </c>
       <c r="T26" t="n">
         <v>4470.229568872915</v>
       </c>
       <c r="U26" t="n">
-        <v>4216.685957959343</v>
+        <v>4216.685957959344</v>
       </c>
       <c r="V26" t="n">
         <v>3885.623070615773</v>
@@ -6269,7 +6269,7 @@
         <v>3159.388657084579</v>
       </c>
       <c r="Y26" t="n">
-        <v>2769.249325108767</v>
+        <v>2769.249325108768</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>107.6228275071022</v>
       </c>
       <c r="I27" t="n">
-        <v>95.81915724946987</v>
+        <v>95.8191572494699</v>
       </c>
       <c r="J27" t="n">
-        <v>306.1925043822635</v>
+        <v>181.3623793952587</v>
       </c>
       <c r="K27" t="n">
-        <v>534.1542399328237</v>
+        <v>405.7241958912945</v>
       </c>
       <c r="L27" t="n">
-        <v>882.1589313347729</v>
+        <v>753.7288872932438</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.62086005225</v>
+        <v>1179.19081601072</v>
       </c>
       <c r="N27" t="n">
-        <v>1758.752144937144</v>
+        <v>1630.322100895615</v>
       </c>
       <c r="O27" t="n">
-        <v>2149.229339757691</v>
+        <v>2020.799295716162</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.288647435496</v>
+        <v>2314.858603393967</v>
       </c>
       <c r="Q27" t="n">
         <v>2589.940310744605</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>408.797494901891</v>
+        <v>322.8526937137125</v>
       </c>
       <c r="C28" t="n">
-        <v>392.825744159716</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="D28" t="n">
-        <v>242.7091047473802</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="E28" t="n">
-        <v>242.7091047473802</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="F28" t="n">
-        <v>95.81915724946987</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="G28" t="n">
-        <v>95.81915724946987</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="H28" t="n">
-        <v>95.81915724946987</v>
+        <v>153.9165107858056</v>
       </c>
       <c r="I28" t="n">
-        <v>95.81915724946987</v>
+        <v>95.8191572494699</v>
       </c>
       <c r="J28" t="n">
         <v>135.838749792115</v>
@@ -6406,28 +6406,28 @@
         <v>1885.046168877122</v>
       </c>
       <c r="R28" t="n">
-        <v>1885.046168877122</v>
+        <v>1791.904395934456</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.076865335312</v>
+        <v>1598.935092392646</v>
       </c>
       <c r="T28" t="n">
-        <v>1469.995587879142</v>
+        <v>1376.853814936477</v>
       </c>
       <c r="U28" t="n">
-        <v>1180.888704042756</v>
+        <v>1087.74693110009</v>
       </c>
       <c r="V28" t="n">
-        <v>926.2042158368689</v>
+        <v>833.0624428942032</v>
       </c>
       <c r="W28" t="n">
-        <v>636.7870457999084</v>
+        <v>543.6452728572426</v>
       </c>
       <c r="X28" t="n">
-        <v>408.797494901891</v>
+        <v>543.6452728572426</v>
       </c>
       <c r="Y28" t="n">
-        <v>408.797494901891</v>
+        <v>322.8526937137125</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2382.649485044646</v>
+        <v>2382.649485044645</v>
       </c>
       <c r="C29" t="n">
         <v>2013.686968104234</v>
@@ -6452,25 +6452,25 @@
         <v>858.647112109632</v>
       </c>
       <c r="G29" t="n">
-        <v>443.4104846120221</v>
+        <v>443.4104846120224</v>
       </c>
       <c r="H29" t="n">
-        <v>144.1455030108245</v>
+        <v>144.1455030108244</v>
       </c>
       <c r="I29" t="n">
         <v>95.8191572494699</v>
       </c>
       <c r="J29" t="n">
-        <v>438.4468839967975</v>
+        <v>271.0412349764445</v>
       </c>
       <c r="K29" t="n">
-        <v>1072.701833563087</v>
+        <v>584.3922260972811</v>
       </c>
       <c r="L29" t="n">
-        <v>1498.343208296444</v>
+        <v>1236.500379836023</v>
       </c>
       <c r="M29" t="n">
-        <v>2003.620687444195</v>
+        <v>1741.777858983773</v>
       </c>
       <c r="N29" t="n">
         <v>2692.818519542172</v>
@@ -6494,19 +6494,19 @@
         <v>4470.229568872916</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.685957959345</v>
+        <v>4216.685957959344</v>
       </c>
       <c r="V29" t="n">
-        <v>3885.623070615774</v>
+        <v>3885.623070615773</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.85441534566</v>
+        <v>3532.854415345659</v>
       </c>
       <c r="X29" t="n">
-        <v>3159.38865708458</v>
+        <v>3159.388657084579</v>
       </c>
       <c r="Y29" t="n">
-        <v>2769.249325108768</v>
+        <v>2769.249325108767</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>95.8191572494699</v>
       </c>
       <c r="J30" t="n">
-        <v>306.1925043822635</v>
+        <v>181.3623793952587</v>
       </c>
       <c r="K30" t="n">
-        <v>534.1542399328237</v>
+        <v>405.7241958912945</v>
       </c>
       <c r="L30" t="n">
-        <v>882.1589313347729</v>
+        <v>753.7288872932438</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.62086005225</v>
+        <v>1179.19081601072</v>
       </c>
       <c r="N30" t="n">
-        <v>1758.752144937144</v>
+        <v>1630.322100895615</v>
       </c>
       <c r="O30" t="n">
-        <v>2149.229339757691</v>
+        <v>2020.799295716162</v>
       </c>
       <c r="P30" t="n">
         <v>2443.288647435496</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.7850731721056</v>
+        <v>264.7553401773768</v>
       </c>
       <c r="C31" t="n">
-        <v>393.8488902441987</v>
+        <v>95.8191572494699</v>
       </c>
       <c r="D31" t="n">
-        <v>243.732250831863</v>
+        <v>95.8191572494699</v>
       </c>
       <c r="E31" t="n">
         <v>95.8191572494699</v>
@@ -6643,28 +6643,28 @@
         <v>1885.046168877122</v>
       </c>
       <c r="R31" t="n">
-        <v>1885.046168877122</v>
+        <v>1791.904395934456</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.076865335312</v>
+        <v>1598.935092392646</v>
       </c>
       <c r="T31" t="n">
-        <v>1469.995587879142</v>
+        <v>1376.853814936477</v>
       </c>
       <c r="U31" t="n">
-        <v>1447.90015624978</v>
+        <v>1087.74693110009</v>
       </c>
       <c r="V31" t="n">
-        <v>1193.215668043893</v>
+        <v>833.0624428942032</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.215668043893</v>
+        <v>543.6452728572426</v>
       </c>
       <c r="X31" t="n">
-        <v>965.2261171458755</v>
+        <v>446.4038050076165</v>
       </c>
       <c r="Y31" t="n">
-        <v>744.4335380023454</v>
+        <v>446.4038050076165</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2362.949835885928</v>
+        <v>2362.949835885931</v>
       </c>
       <c r="C32" t="n">
-        <v>1996.683639640424</v>
+        <v>1996.683639640427</v>
       </c>
       <c r="D32" t="n">
-        <v>1641.114261728582</v>
+        <v>1641.114261728585</v>
       </c>
       <c r="E32" t="n">
-        <v>1258.022329825246</v>
+        <v>1258.022329825249</v>
       </c>
       <c r="F32" t="n">
-        <v>849.732745730547</v>
+        <v>849.7327457305491</v>
       </c>
       <c r="G32" t="n">
-        <v>437.1924389278456</v>
+        <v>437.1924389278467</v>
       </c>
       <c r="H32" t="n">
-        <v>140.6237780215565</v>
+        <v>140.6237780215568</v>
       </c>
       <c r="I32" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="J32" t="n">
-        <v>437.6214797024378</v>
+        <v>270.2158306820849</v>
       </c>
       <c r="K32" t="n">
-        <v>1071.876429268727</v>
+        <v>904.4707802483746</v>
       </c>
       <c r="L32" t="n">
-        <v>1497.517804002084</v>
+        <v>1330.112154981732</v>
       </c>
       <c r="M32" t="n">
-        <v>2002.795283149835</v>
+        <v>2077.499823715911</v>
       </c>
       <c r="N32" t="n">
-        <v>2651.548304824189</v>
+        <v>3028.54048427431</v>
       </c>
       <c r="O32" t="n">
-        <v>3504.40139442077</v>
+        <v>3504.401394420774</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.617392030334</v>
+        <v>4194.617392030338</v>
       </c>
       <c r="Q32" t="n">
-        <v>4635.71910172249</v>
+        <v>4635.719101722493</v>
       </c>
       <c r="R32" t="n">
-        <v>4749.687647755512</v>
+        <v>4749.687647755515</v>
       </c>
       <c r="S32" t="n">
-        <v>4638.352108782876</v>
+        <v>4638.352108782881</v>
       </c>
       <c r="T32" t="n">
-        <v>4434.351995544748</v>
+        <v>4434.351995544753</v>
       </c>
       <c r="U32" t="n">
-        <v>4183.504705326084</v>
+        <v>4183.504705326089</v>
       </c>
       <c r="V32" t="n">
-        <v>3855.138138677422</v>
+        <v>3855.138138677426</v>
       </c>
       <c r="W32" t="n">
-        <v>3505.065804102216</v>
+        <v>3505.06580410222</v>
       </c>
       <c r="X32" t="n">
-        <v>3134.296366536045</v>
+        <v>3134.296366536048</v>
       </c>
       <c r="Y32" t="n">
-        <v>2746.853355255141</v>
+        <v>2746.853355255145</v>
       </c>
     </row>
     <row r="33">
@@ -6762,25 +6762,25 @@
         <v>640.3706481449319</v>
       </c>
       <c r="E33" t="n">
-        <v>481.1331931394764</v>
+        <v>481.1331931394765</v>
       </c>
       <c r="F33" t="n">
-        <v>334.5986351663613</v>
+        <v>334.5986351663614</v>
       </c>
       <c r="G33" t="n">
-        <v>198.1476923764708</v>
+        <v>198.1476923764709</v>
       </c>
       <c r="H33" t="n">
-        <v>106.7974232127425</v>
+        <v>106.7974232127426</v>
       </c>
       <c r="I33" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="J33" t="n">
-        <v>305.3671000879039</v>
+        <v>180.5369751008992</v>
       </c>
       <c r="K33" t="n">
-        <v>533.3288356384642</v>
+        <v>404.898791596935</v>
       </c>
       <c r="L33" t="n">
         <v>881.3335270404134</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.99375295511024</v>
+        <v>242.4140716725379</v>
       </c>
       <c r="C34" t="n">
-        <v>94.99375295511024</v>
+        <v>242.4140716725379</v>
       </c>
       <c r="D34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="E34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="F34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="G34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="H34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="I34" t="n">
-        <v>94.99375295511024</v>
+        <v>94.99375295511031</v>
       </c>
       <c r="J34" t="n">
-        <v>137.656009410835</v>
+        <v>137.6560094108348</v>
       </c>
       <c r="K34" t="n">
-        <v>335.8999941181257</v>
+        <v>335.8999941181253</v>
       </c>
       <c r="L34" t="n">
-        <v>644.3714400730196</v>
+        <v>644.3714400730189</v>
       </c>
       <c r="M34" t="n">
-        <v>979.8567973843263</v>
+        <v>979.8567973843255</v>
       </c>
       <c r="N34" t="n">
-        <v>1312.862515808476</v>
+        <v>1312.862515808475</v>
       </c>
       <c r="O34" t="n">
-        <v>1604.632635857874</v>
+        <v>1604.632635857872</v>
       </c>
       <c r="P34" t="n">
-        <v>1831.153104578191</v>
+        <v>1831.153104578189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1905.362075887399</v>
+        <v>1905.362075887397</v>
       </c>
       <c r="R34" t="n">
-        <v>1905.362075887399</v>
+        <v>1814.916623639639</v>
       </c>
       <c r="S34" t="n">
-        <v>1761.839922497943</v>
+        <v>1624.643640792738</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.454965736682</v>
+        <v>1405.258684031476</v>
       </c>
       <c r="U34" t="n">
-        <v>1256.044402595203</v>
+        <v>1118.848120889998</v>
       </c>
       <c r="V34" t="n">
-        <v>1004.056235084225</v>
+        <v>933.3802953530314</v>
       </c>
       <c r="W34" t="n">
-        <v>717.3353857421724</v>
+        <v>646.6594460109789</v>
       </c>
       <c r="X34" t="n">
-        <v>492.0421555390634</v>
+        <v>421.3662158078696</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.9458970904416</v>
+        <v>421.3662158078696</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2014.144805759365</v>
+        <v>2014.144805759367</v>
       </c>
       <c r="C35" t="n">
-        <v>1695.962847250483</v>
+        <v>1695.962847250484</v>
       </c>
       <c r="D35" t="n">
-        <v>1388.477707075261</v>
+        <v>1388.477707075263</v>
       </c>
       <c r="E35" t="n">
-        <v>1053.470012908546</v>
+        <v>1053.470012908548</v>
       </c>
       <c r="F35" t="n">
-        <v>693.2646665504682</v>
+        <v>693.2646665504694</v>
       </c>
       <c r="G35" t="n">
         <v>328.8085974843884</v>
@@ -6935,52 +6935,52 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J35" t="n">
-        <v>422.9519010620472</v>
+        <v>255.5462520416942</v>
       </c>
       <c r="K35" t="n">
-        <v>736.3028921828839</v>
+        <v>889.8012016079839</v>
       </c>
       <c r="L35" t="n">
-        <v>1161.944266916241</v>
+        <v>1315.442576341341</v>
       </c>
       <c r="M35" t="n">
-        <v>1667.221746063991</v>
+        <v>2265.738453646996</v>
       </c>
       <c r="N35" t="n">
-        <v>2185.288951454526</v>
+        <v>2888.893369772102</v>
       </c>
       <c r="O35" t="n">
-        <v>2770.922462401239</v>
+        <v>3364.754279918566</v>
       </c>
       <c r="P35" t="n">
-        <v>3461.138460010804</v>
+        <v>3736.389556438362</v>
       </c>
       <c r="Q35" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R35" t="n">
-        <v>4016.208715735981</v>
+        <v>4016.208715735982</v>
       </c>
       <c r="S35" t="n">
-        <v>3952.957414499968</v>
+        <v>3952.957414499969</v>
       </c>
       <c r="T35" t="n">
         <v>3797.041538998461</v>
       </c>
       <c r="U35" t="n">
-        <v>3594.278486516418</v>
+        <v>3594.278486516419</v>
       </c>
       <c r="V35" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604377</v>
       </c>
       <c r="W35" t="n">
-        <v>3012.008060765791</v>
+        <v>3012.008060765792</v>
       </c>
       <c r="X35" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936242</v>
       </c>
       <c r="Y35" t="n">
-        <v>2349.964087391958</v>
+        <v>2349.964087391959</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>390.2292129565443</v>
       </c>
       <c r="L36" t="n">
-        <v>866.6639484000227</v>
+        <v>738.2339043584935</v>
       </c>
       <c r="M36" t="n">
-        <v>1292.125877117499</v>
+        <v>1163.69583307597</v>
       </c>
       <c r="N36" t="n">
-        <v>1743.257162002394</v>
+        <v>1614.827117960865</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.734356822941</v>
+        <v>2005.304312781412</v>
       </c>
       <c r="P36" t="n">
-        <v>2427.793664500746</v>
+        <v>2299.363620459217</v>
       </c>
       <c r="Q36" t="n">
         <v>2574.445327809855</v>
@@ -7072,22 +7072,22 @@
         <v>752.9049234844017</v>
       </c>
       <c r="C37" t="n">
-        <v>634.7492989880238</v>
+        <v>634.749298988024</v>
       </c>
       <c r="D37" t="n">
         <v>535.4132180072174</v>
       </c>
       <c r="E37" t="n">
-        <v>438.2806828563535</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F37" t="n">
-        <v>342.1712937899725</v>
+        <v>342.1712937899724</v>
       </c>
       <c r="G37" t="n">
-        <v>225.1753712923344</v>
+        <v>225.1753712923343</v>
       </c>
       <c r="H37" t="n">
-        <v>129.0839781308058</v>
+        <v>129.0839781308055</v>
       </c>
       <c r="I37" t="n">
         <v>80.32417431471963</v>
@@ -7099,19 +7099,19 @@
         <v>415.4851382890594</v>
       </c>
       <c r="L37" t="n">
-        <v>771.0839456496151</v>
+        <v>771.0839456496153</v>
       </c>
       <c r="M37" t="n">
         <v>1153.696664366584</v>
       </c>
       <c r="N37" t="n">
-        <v>1533.829744196395</v>
+        <v>1533.829744196396</v>
       </c>
       <c r="O37" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P37" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777436</v>
       </c>
       <c r="Q37" t="n">
         <v>2267.711388492305</v>
@@ -7123,10 +7123,10 @@
         <v>2083.161428870888</v>
       </c>
       <c r="T37" t="n">
-        <v>1911.860709846248</v>
+        <v>1911.860709846247</v>
       </c>
       <c r="U37" t="n">
-        <v>1673.53438444139</v>
+        <v>1673.534384441391</v>
       </c>
       <c r="V37" t="n">
         <v>1469.630454667033</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2014.144805759365</v>
+        <v>2014.144805759366</v>
       </c>
       <c r="C38" t="n">
         <v>1695.962847250483</v>
@@ -7160,10 +7160,10 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F38" t="n">
-        <v>693.2646665504682</v>
+        <v>693.2646665504685</v>
       </c>
       <c r="G38" t="n">
-        <v>328.8085974843877</v>
+        <v>328.8085974843884</v>
       </c>
       <c r="H38" t="n">
         <v>80.32417431471963</v>
@@ -7172,28 +7172,28 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J38" t="n">
-        <v>422.9519010620472</v>
+        <v>255.5462520416942</v>
       </c>
       <c r="K38" t="n">
-        <v>736.3028921828839</v>
+        <v>889.8012016079839</v>
       </c>
       <c r="L38" t="n">
-        <v>1161.944266916241</v>
+        <v>1315.442576341341</v>
       </c>
       <c r="M38" t="n">
-        <v>1667.221746063991</v>
+        <v>2265.738453646996</v>
       </c>
       <c r="N38" t="n">
-        <v>2185.288951454526</v>
+        <v>2783.80565903753</v>
       </c>
       <c r="O38" t="n">
-        <v>2770.922462401239</v>
+        <v>3259.666569183994</v>
       </c>
       <c r="P38" t="n">
-        <v>3461.138460010804</v>
+        <v>3631.301845703791</v>
       </c>
       <c r="Q38" t="n">
-        <v>3902.240169702959</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R38" t="n">
         <v>4016.208715735981</v>
@@ -7208,13 +7208,13 @@
         <v>3594.278486516418</v>
       </c>
       <c r="V38" t="n">
-        <v>3313.996157604376</v>
+        <v>3313.996157604377</v>
       </c>
       <c r="W38" t="n">
         <v>3012.008060765791</v>
       </c>
       <c r="X38" t="n">
-        <v>2689.32286093624</v>
+        <v>2689.322860936241</v>
       </c>
       <c r="Y38" t="n">
         <v>2349.964087391958</v>
@@ -7251,10 +7251,10 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J39" t="n">
-        <v>165.8673964605085</v>
+        <v>290.6975214475132</v>
       </c>
       <c r="K39" t="n">
-        <v>518.6592569980735</v>
+        <v>515.0593379435491</v>
       </c>
       <c r="L39" t="n">
         <v>866.6639484000227</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>752.9049234844014</v>
+        <v>752.9049234844017</v>
       </c>
       <c r="C40" t="n">
-        <v>634.7492989880236</v>
+        <v>634.7492989880241</v>
       </c>
       <c r="D40" t="n">
-        <v>535.4132180072171</v>
+        <v>535.4132180072176</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2806828563532</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F40" t="n">
-        <v>342.171293789972</v>
+        <v>342.1712937899725</v>
       </c>
       <c r="G40" t="n">
-        <v>225.1753712923339</v>
+        <v>225.1753712923344</v>
       </c>
       <c r="H40" t="n">
         <v>129.0839781308058</v>
@@ -7330,7 +7330,7 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J40" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761064</v>
       </c>
       <c r="K40" t="n">
         <v>415.4851382890594</v>
@@ -7357,16 +7357,16 @@
         <v>2225.350173981168</v>
       </c>
       <c r="S40" t="n">
-        <v>2083.161428870887</v>
+        <v>2083.161428870888</v>
       </c>
       <c r="T40" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846248</v>
       </c>
       <c r="U40" t="n">
         <v>1673.53438444139</v>
       </c>
       <c r="V40" t="n">
-        <v>1469.630454667032</v>
+        <v>1469.630454667033</v>
       </c>
       <c r="W40" t="n">
         <v>1230.993843061601</v>
@@ -7375,7 +7375,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y40" t="n">
-        <v>883.7728298831119</v>
+        <v>883.7728298831122</v>
       </c>
     </row>
     <row r="41">
@@ -7412,28 +7412,28 @@
         <v>422.9519010620472</v>
       </c>
       <c r="K41" t="n">
-        <v>846.0754929831339</v>
+        <v>736.3028921828839</v>
       </c>
       <c r="L41" t="n">
-        <v>1271.716867716491</v>
+        <v>1161.944266916241</v>
       </c>
       <c r="M41" t="n">
-        <v>1776.994346864241</v>
+        <v>1667.221746063991</v>
       </c>
       <c r="N41" t="n">
-        <v>2295.061552254776</v>
+        <v>2185.288951454526</v>
       </c>
       <c r="O41" t="n">
-        <v>2770.922462401239</v>
+        <v>3038.142041051107</v>
       </c>
       <c r="P41" t="n">
-        <v>3461.138460010804</v>
+        <v>3526.197715685056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3902.24016970296</v>
+        <v>3967.299425377212</v>
       </c>
       <c r="R41" t="n">
-        <v>4016.208715735982</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S41" t="n">
         <v>3952.957414499968</v>
@@ -7442,13 +7442,13 @@
         <v>3797.041538998461</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.278486516419</v>
+        <v>3594.278486516418</v>
       </c>
       <c r="V41" t="n">
         <v>3313.996157604377</v>
       </c>
       <c r="W41" t="n">
-        <v>3012.008060765792</v>
+        <v>3012.008060765791</v>
       </c>
       <c r="X41" t="n">
         <v>2689.322860936241</v>
@@ -7488,10 +7488,10 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J42" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605085</v>
       </c>
       <c r="K42" t="n">
-        <v>518.6592569980735</v>
+        <v>390.2292129565443</v>
       </c>
       <c r="L42" t="n">
         <v>866.6639484000227</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.9049234844013</v>
+        <v>752.9049234844017</v>
       </c>
       <c r="C43" t="n">
-        <v>634.7492989880243</v>
+        <v>634.7492989880241</v>
       </c>
       <c r="D43" t="n">
-        <v>535.4132180072178</v>
+        <v>535.4132180072176</v>
       </c>
       <c r="E43" t="n">
-        <v>438.2806828563539</v>
+        <v>438.2806828563536</v>
       </c>
       <c r="F43" t="n">
-        <v>342.1712937899728</v>
+        <v>342.1712937899725</v>
       </c>
       <c r="G43" t="n">
-        <v>225.1753712923347</v>
+        <v>225.1753712923344</v>
       </c>
       <c r="H43" t="n">
         <v>129.0839781308058</v>
@@ -7567,22 +7567,22 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J43" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761066</v>
       </c>
       <c r="K43" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890595</v>
       </c>
       <c r="L43" t="n">
-        <v>771.0839456496153</v>
+        <v>771.0839456496155</v>
       </c>
       <c r="M43" t="n">
         <v>1153.696664366584</v>
       </c>
       <c r="N43" t="n">
-        <v>1533.829744196395</v>
+        <v>1533.829744196396</v>
       </c>
       <c r="O43" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P43" t="n">
         <v>2146.375055777435</v>
@@ -7597,13 +7597,13 @@
         <v>2083.161428870888</v>
       </c>
       <c r="T43" t="n">
-        <v>1911.860709846247</v>
+        <v>1911.860709846248</v>
       </c>
       <c r="U43" t="n">
         <v>1673.53438444139</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.630454667032</v>
+        <v>1469.630454667033</v>
       </c>
       <c r="W43" t="n">
         <v>1230.993843061601</v>
@@ -7612,7 +7612,7 @@
         <v>1053.784850595113</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.7728298831117</v>
+        <v>883.7728298831122</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2014.144805759366</v>
       </c>
       <c r="C44" t="n">
-        <v>1695.962847250484</v>
+        <v>1695.962847250483</v>
       </c>
       <c r="D44" t="n">
         <v>1388.477707075262</v>
@@ -7634,7 +7634,7 @@
         <v>1053.470012908547</v>
       </c>
       <c r="F44" t="n">
-        <v>693.264666550469</v>
+        <v>693.2646665504687</v>
       </c>
       <c r="G44" t="n">
         <v>328.8085974843884</v>
@@ -7646,52 +7646,52 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J44" t="n">
-        <v>422.9519010620472</v>
+        <v>255.5462520416942</v>
       </c>
       <c r="K44" t="n">
-        <v>736.3028921828839</v>
+        <v>568.8972431625308</v>
       </c>
       <c r="L44" t="n">
-        <v>1161.944266916241</v>
+        <v>994.5386178958879</v>
       </c>
       <c r="M44" t="n">
-        <v>1667.221746063991</v>
+        <v>1944.834495201543</v>
       </c>
       <c r="N44" t="n">
-        <v>2185.288951454526</v>
+        <v>2823.834114097849</v>
       </c>
       <c r="O44" t="n">
-        <v>2770.922462401239</v>
+        <v>3299.695024244313</v>
       </c>
       <c r="P44" t="n">
-        <v>3461.138460010804</v>
+        <v>3671.330300764109</v>
       </c>
       <c r="Q44" t="n">
-        <v>3902.24016970296</v>
+        <v>3902.240169702959</v>
       </c>
       <c r="R44" t="n">
-        <v>4016.208715735982</v>
+        <v>4016.208715735981</v>
       </c>
       <c r="S44" t="n">
-        <v>3952.957414499969</v>
+        <v>3952.957414499968</v>
       </c>
       <c r="T44" t="n">
         <v>3797.041538998461</v>
       </c>
       <c r="U44" t="n">
-        <v>3594.278486516419</v>
+        <v>3594.278486516418</v>
       </c>
       <c r="V44" t="n">
         <v>3313.996157604377</v>
       </c>
       <c r="W44" t="n">
-        <v>3012.008060765792</v>
+        <v>3012.008060765791</v>
       </c>
       <c r="X44" t="n">
         <v>2689.322860936241</v>
       </c>
       <c r="Y44" t="n">
-        <v>2349.964087391959</v>
+        <v>2349.964087391958</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J45" t="n">
-        <v>290.6975214475132</v>
+        <v>165.8673964605085</v>
       </c>
       <c r="K45" t="n">
-        <v>515.0593379435491</v>
+        <v>390.2292129565443</v>
       </c>
       <c r="L45" t="n">
-        <v>863.0640293454983</v>
+        <v>738.2339043584935</v>
       </c>
       <c r="M45" t="n">
-        <v>1292.125877117499</v>
+        <v>1163.69583307597</v>
       </c>
       <c r="N45" t="n">
         <v>1743.257162002394</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.904923484402</v>
+        <v>752.9049234844017</v>
       </c>
       <c r="C46" t="n">
-        <v>634.7492989880243</v>
+        <v>634.7492989880241</v>
       </c>
       <c r="D46" t="n">
-        <v>535.4132180072178</v>
+        <v>535.4132180072176</v>
       </c>
       <c r="E46" t="n">
-        <v>438.2806828563539</v>
+        <v>438.2806828563537</v>
       </c>
       <c r="F46" t="n">
-        <v>342.1712937899728</v>
+        <v>342.1712937899725</v>
       </c>
       <c r="G46" t="n">
-        <v>225.1753712923347</v>
+        <v>225.1753712923345</v>
       </c>
       <c r="H46" t="n">
         <v>129.0839781308058</v>
@@ -7804,52 +7804,52 @@
         <v>80.32417431471963</v>
       </c>
       <c r="J46" t="n">
-        <v>170.1137921761065</v>
+        <v>170.1137921761066</v>
       </c>
       <c r="K46" t="n">
-        <v>415.4851382890594</v>
+        <v>415.4851382890595</v>
       </c>
       <c r="L46" t="n">
-        <v>771.0839456496153</v>
+        <v>771.0839456496155</v>
       </c>
       <c r="M46" t="n">
         <v>1153.696664366584</v>
       </c>
       <c r="N46" t="n">
-        <v>1533.829744196395</v>
+        <v>1533.829744196396</v>
       </c>
       <c r="O46" t="n">
-        <v>1872.727225651455</v>
+        <v>1872.727225651456</v>
       </c>
       <c r="P46" t="n">
-        <v>2146.375055777435</v>
+        <v>2146.375055777436</v>
       </c>
       <c r="Q46" t="n">
-        <v>2267.711388492305</v>
+        <v>2267.711388492306</v>
       </c>
       <c r="R46" t="n">
         <v>2225.350173981169</v>
       </c>
       <c r="S46" t="n">
-        <v>2083.161428870889</v>
+        <v>2083.161428870888</v>
       </c>
       <c r="T46" t="n">
         <v>1911.860709846248</v>
       </c>
       <c r="U46" t="n">
-        <v>1673.534384441391</v>
+        <v>1673.53438444139</v>
       </c>
       <c r="V46" t="n">
         <v>1469.630454667033</v>
       </c>
       <c r="W46" t="n">
-        <v>1230.993843061602</v>
+        <v>1230.993843061601</v>
       </c>
       <c r="X46" t="n">
-        <v>1053.784850595114</v>
+        <v>1053.784850595113</v>
       </c>
       <c r="Y46" t="n">
-        <v>883.7728298831125</v>
+        <v>883.7728298831122</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M2" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>246.5357332704046</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>153.8571172950092</v>
       </c>
       <c r="M3" t="n">
-        <v>156.8184790122994</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q3" t="n">
         <v>155.2845116011566</v>
@@ -8143,13 +8143,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M4" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N4" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P5" t="n">
         <v>246.5357332704046</v>
@@ -8298,10 +8298,10 @@
         <v>153.144176489494</v>
       </c>
       <c r="L6" t="n">
-        <v>153.8571172950092</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M6" t="n">
-        <v>156.8184790122994</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8377,10 +8377,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>149.5691213715194</v>
+        <v>150.1874137963733</v>
       </c>
       <c r="M7" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N7" t="n">
         <v>142.9882819803682</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
         <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>255.7185026163176</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
         <v>156.9620032779641</v>
@@ -8547,7 +8547,7 @@
         <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>159.5946986089611</v>
+        <v>158.5595353283699</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>176.5978348227296</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.54903742363848</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.636281873257076</v>
+        <v>129.7273172136658</v>
       </c>
       <c r="R12" t="n">
         <v>5.542318481255734</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>61.04961858222896</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>293.0503191036654</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>129.7273172136662</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.636281873257076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.542318481255734</v>
+        <v>5.542318481255762</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>110.8814149497475</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>386.5661210829522</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>177.2092593919628</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>277.6313257221393</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>129.7273172136659</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>3.636281873256962</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>61.66104315146131</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.4815802883023</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.636281873257047</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>129.7273172136658</v>
       </c>
       <c r="R24" t="n">
         <v>5.542318481255734</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>172.859218896405</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>282.3041330197946</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.636281873256991</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>129.7273172136658</v>
       </c>
       <c r="R27" t="n">
         <v>5.542318481255734</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>228.7543222276611</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>172.8592188964066</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.636281873256991</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>129.7273172136657</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>244.5557470569989</v>
       </c>
       <c r="N32" t="n">
-        <v>132.0058750341607</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.636281873257104</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>129.7273172136658</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>106.1492027621937</v>
       </c>
       <c r="O35" t="n">
-        <v>110.8814149497475</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10668,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>129.7273172136658</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>5.542318481255734</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>110.8814149497475</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>106.1492027621933</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>129.7273172136659</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.636281873256962</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>110.8814149497475</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>117.596361731467</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>3.636281873257047</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>129.7273172136658</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>364.5781954603755</v>
       </c>
       <c r="O44" t="n">
-        <v>110.8814149497475</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,10 +11382,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>3.636281873257076</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>129.7273172136659</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>151.4347878638745</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0987161198756</v>
@@ -24619,7 +24619,7 @@
         <v>145.4032320771275</v>
       </c>
       <c r="I28" t="n">
-        <v>98.5449586251392</v>
+        <v>41.02857862416689</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.21035521323937</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.21035521323937</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>264.3413376849538</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>129.4406022179073</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>164.5774636106686</v>
+        <v>164.5774636106688</v>
       </c>
       <c r="D34" t="n">
-        <v>145.9461155302531</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.76460515861</v>
+        <v>143.7646051586102</v>
       </c>
       <c r="F34" t="n">
-        <v>142.751690534972</v>
+        <v>142.7516905349723</v>
       </c>
       <c r="G34" t="n">
-        <v>163.4293586319164</v>
+        <v>163.4293586319166</v>
       </c>
       <c r="H34" t="n">
-        <v>142.7338745891682</v>
+        <v>142.7338745891685</v>
       </c>
       <c r="I34" t="n">
-        <v>95.87560113717998</v>
+        <v>95.87560113718021</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.54099772528015</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.28332116287078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>65.8551385542726</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>215.9152958641358</v>
       </c>
     </row>
     <row r="35">
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658466.125762047</v>
+        <v>658466.1257620471</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176766</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="E2" t="n">
+        <v>800515.7256176767</v>
+      </c>
+      <c r="F2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="G2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="I2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="E2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="F2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="G2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="H2" t="n">
-        <v>800515.7256176767</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176767</v>
       </c>
       <c r="J2" t="n">
         <v>772469.8276994077</v>
       </c>
       <c r="K2" t="n">
-        <v>772469.8276994078</v>
+        <v>772469.8276994077</v>
       </c>
       <c r="L2" t="n">
-        <v>773958.9947605826</v>
+        <v>773958.9947605823</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="N2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="O2" t="n">
         <v>800515.7256176756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176763</v>
       </c>
       <c r="P2" t="n">
         <v>800515.7256176759</v>
@@ -26375,7 +26375,7 @@
         <v>1175404.145025334</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54680.98589165737</v>
+        <v>54680.98589165755</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2135.485990367374</v>
+        <v>2135.48599036716</v>
       </c>
       <c r="M3" t="n">
-        <v>236215.3854958554</v>
+        <v>236215.3854958552</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>400839.1127573195</v>
       </c>
       <c r="E4" t="n">
-        <v>79056.20492161794</v>
+        <v>79056.204921618</v>
       </c>
       <c r="F4" t="n">
-        <v>79056.20492161799</v>
+        <v>79056.204921618</v>
       </c>
       <c r="G4" t="n">
-        <v>79056.20492161802</v>
+        <v>79056.20492161796</v>
       </c>
       <c r="H4" t="n">
-        <v>79056.20492161802</v>
+        <v>79056.20492161797</v>
       </c>
       <c r="I4" t="n">
-        <v>79056.20492161799</v>
+        <v>79056.20492161796</v>
       </c>
       <c r="J4" t="n">
-        <v>45243.20070722647</v>
+        <v>45243.20070722641</v>
       </c>
       <c r="K4" t="n">
-        <v>45243.20070722642</v>
+        <v>45243.20070722643</v>
       </c>
       <c r="L4" t="n">
-        <v>47041.5509154571</v>
+        <v>47041.55091545694</v>
       </c>
       <c r="M4" t="n">
-        <v>79056.20492161796</v>
+        <v>79056.20492161797</v>
       </c>
       <c r="N4" t="n">
         <v>79056.20492161796</v>
       </c>
       <c r="O4" t="n">
-        <v>79056.20492161796</v>
+        <v>79056.20492161797</v>
       </c>
       <c r="P4" t="n">
-        <v>79056.20492161796</v>
+        <v>79056.20492161797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="F5" t="n">
         <v>88148.49485346195</v>
       </c>
       <c r="G5" t="n">
-        <v>88148.49485346198</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="H5" t="n">
-        <v>88148.49485346198</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="I5" t="n">
-        <v>88148.49485346198</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="J5" t="n">
-        <v>95698.30182475972</v>
+        <v>95698.30182475975</v>
       </c>
       <c r="K5" t="n">
         <v>95698.30182475975</v>
       </c>
       <c r="L5" t="n">
-        <v>95295.40477570164</v>
+        <v>95295.40477570167</v>
       </c>
       <c r="M5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="N5" t="n">
-        <v>88148.49485346195</v>
+        <v>88148.49485346196</v>
       </c>
       <c r="O5" t="n">
         <v>88148.49485346196</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358302.872559691</v>
+        <v>358302.8725596911</v>
       </c>
       <c r="C6" t="n">
-        <v>363431.1718639755</v>
+        <v>363431.1718639752</v>
       </c>
       <c r="D6" t="n">
-        <v>361286.3574562614</v>
+        <v>361286.3574562617</v>
       </c>
       <c r="E6" t="n">
         <v>-542093.1191827375</v>
       </c>
       <c r="F6" t="n">
+        <v>633311.025842596</v>
+      </c>
+      <c r="G6" t="n">
+        <v>633311.0258425961</v>
+      </c>
+      <c r="H6" t="n">
         <v>633311.0258425963</v>
       </c>
-      <c r="G6" t="n">
-        <v>633311.0258425963</v>
-      </c>
-      <c r="H6" t="n">
-        <v>633311.0258425968</v>
-      </c>
       <c r="I6" t="n">
-        <v>633311.0258425968</v>
+        <v>633311.0258425962</v>
       </c>
       <c r="J6" t="n">
-        <v>576847.3392757641</v>
+        <v>576775.4267169993</v>
       </c>
       <c r="K6" t="n">
-        <v>631528.3251674215</v>
+        <v>631456.4126086567</v>
       </c>
       <c r="L6" t="n">
-        <v>629486.5530790566</v>
+        <v>629418.4588973717</v>
       </c>
       <c r="M6" t="n">
-        <v>397095.6403467412</v>
+        <v>397095.640346741</v>
       </c>
       <c r="N6" t="n">
+        <v>633311.0258425964</v>
+      </c>
+      <c r="O6" t="n">
         <v>633311.0258425956</v>
-      </c>
-      <c r="O6" t="n">
-        <v>633311.0258425963</v>
       </c>
       <c r="P6" t="n">
         <v>633311.025842596</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="F2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I2" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="M2" t="n">
         <v>50.27275284721389</v>
       </c>
       <c r="N2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="O2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="P2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="3">
@@ -26811,13 +26811,13 @@
         <v>1004.052178933995</v>
       </c>
       <c r="J4" t="n">
-        <v>1197.739465618373</v>
+        <v>1197.739465618374</v>
       </c>
       <c r="K4" t="n">
         <v>1197.739465618374</v>
       </c>
       <c r="L4" t="n">
-        <v>1187.421911938878</v>
+        <v>1187.421911938879</v>
       </c>
       <c r="M4" t="n">
         <v>1004.052178933995</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958949</v>
       </c>
       <c r="M2" t="n">
-        <v>47.60339535925468</v>
+        <v>47.60339535925492</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="E4" t="n">
-        <v>978.4318877393641</v>
+        <v>978.4318877393645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>208.990024199513</v>
+        <v>208.9900241995135</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>795.0621547344812</v>
+        <v>795.0621547344798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>10.31755367949578</v>
       </c>
       <c r="M4" t="n">
-        <v>978.4318877393641</v>
+        <v>978.4318877393645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>143.027717791841</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>197.1054258240356</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>153.0545324465364</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.4057614731807</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>87.42577427557005</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>11.51228135765841</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>70.85930573655934</v>
@@ -27585,7 +27585,7 @@
         <v>161.9906538620344</v>
       </c>
       <c r="S4" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>273.04434713326</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375.8924415141719</v>
+        <v>367.4311041483455</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,10 +27673,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>342.6383632557935</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.16642925207</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.1477374121232</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27819,16 +27819,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>212.2310041857062</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>395.9321281471422</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27907,7 +27907,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>385.8503694286692</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>204.1216209230018</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28056,22 +28056,22 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7526768722601</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>260.9027071419601</v>
+        <v>263.9566458523602</v>
       </c>
       <c r="X10" t="n">
         <v>200.0893641944063</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="C11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="D11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="E11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="F11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="G11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="H11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="I11" t="n">
         <v>47.84308230374103</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="T11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="U11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="V11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="W11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="X11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="C13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="D13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="E13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="F13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="G13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="H13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="I13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="J13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="K13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="L13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="M13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="N13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="O13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="P13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="R13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="S13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="T13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="U13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="V13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="W13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="X13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721395</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I14" t="n">
-        <v>47.84308230374103</v>
+        <v>47.84308230374106</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="C16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="D16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="E16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="F16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="G16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="H16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="I16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="J16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="K16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="L16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="M16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="N16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="O16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="P16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="R16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="S16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="T16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="U16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="V16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="W16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="X16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721394</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I17" t="n">
         <v>47.84308230374103</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="J19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="K19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="L19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="M19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="N19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="O19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="P19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="R19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="S19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I20" t="n">
         <v>47.84308230374103</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="J22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="K22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="L22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="M22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="N22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="O22" t="n">
-        <v>50.27275284721338</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="P22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="R22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="S22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C23" t="n">
-        <v>50.27275284721333</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I23" t="n">
         <v>47.84308230374103</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="C25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="D25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="E25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="F25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="G25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="H25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="I25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="J25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="K25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="L25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="M25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="N25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="O25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721429</v>
       </c>
       <c r="P25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="R25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="S25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="T25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="U25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="V25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="W25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="X25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.27275284721396</v>
+        <v>50.27275284721391</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29326,16 +29326,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.156364078432915e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="C32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="D32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="E32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="F32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="G32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="H32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="I32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="T32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="U32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="V32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="W32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="X32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="C34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="D34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="E34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="F34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="G34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="H34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="I34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="J34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="K34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="L34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="M34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="N34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="O34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="P34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="R34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="S34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="T34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="U34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="V34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="W34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="X34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.669357487959218</v>
+        <v>2.669357487958978</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I38" t="n">
         <v>47.84308230374103</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="J40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="K40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="L40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="M40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="N40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="O40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="P40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="R40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="S40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I41" t="n">
         <v>47.84308230374103</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="J43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="K43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="L43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="M43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="N43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="O43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="P43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="R43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="S43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I44" t="n">
         <v>47.84308230374103</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="C46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="D46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="E46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="F46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="G46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="H46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="I46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="J46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="K46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="L46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="M46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="N46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="O46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="P46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="R46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="S46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="T46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="U46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="V46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="W46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="X46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.27275284721389</v>
+        <v>50.27275284721392</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.218476292501517</v>
+        <v>4.218476292501516</v>
       </c>
       <c r="H14" t="n">
-        <v>43.20247033058117</v>
+        <v>43.20247033058116</v>
       </c>
       <c r="I14" t="n">
         <v>162.6328072666649</v>
       </c>
       <c r="J14" t="n">
-        <v>358.037902230701</v>
+        <v>358.0379022307009</v>
       </c>
       <c r="K14" t="n">
-        <v>536.6060036922903</v>
+        <v>536.6060036922902</v>
       </c>
       <c r="L14" t="n">
-        <v>665.7071975289338</v>
+        <v>665.7071975289335</v>
       </c>
       <c r="M14" t="n">
-        <v>740.7275252957076</v>
+        <v>740.7275252957074</v>
       </c>
       <c r="N14" t="n">
-        <v>752.7132710617775</v>
+        <v>752.7132710617774</v>
       </c>
       <c r="O14" t="n">
-        <v>710.7657974282156</v>
+        <v>710.7657974282154</v>
       </c>
       <c r="P14" t="n">
-        <v>606.6221639570842</v>
+        <v>606.6221639570841</v>
       </c>
       <c r="Q14" t="n">
-        <v>455.5479817318735</v>
+        <v>455.5479817318734</v>
       </c>
       <c r="R14" t="n">
-        <v>264.9888614088487</v>
+        <v>264.9888614088486</v>
       </c>
       <c r="S14" t="n">
-        <v>96.12852851537842</v>
+        <v>96.12852851537839</v>
       </c>
       <c r="T14" t="n">
         <v>18.4663799704254</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3374781034001213</v>
+        <v>0.3374781034001212</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.257083801219092</v>
+        <v>2.257083801219091</v>
       </c>
       <c r="H15" t="n">
         <v>21.79867776440544</v>
       </c>
       <c r="I15" t="n">
-        <v>77.71099929635909</v>
+        <v>77.71099929635908</v>
       </c>
       <c r="J15" t="n">
-        <v>213.2449217634231</v>
+        <v>213.244921763423</v>
       </c>
       <c r="K15" t="n">
         <v>364.4695364451022</v>
@@ -32084,16 +32084,16 @@
         <v>490.0742700848734</v>
       </c>
       <c r="M15" t="n">
-        <v>571.8935578790654</v>
+        <v>571.8935578790653</v>
       </c>
       <c r="N15" t="n">
-        <v>587.0298786337321</v>
+        <v>587.029878633732</v>
       </c>
       <c r="O15" t="n">
-        <v>537.017653354088</v>
+        <v>537.0176533540879</v>
       </c>
       <c r="P15" t="n">
-        <v>431.0040111292843</v>
+        <v>431.0040111292842</v>
       </c>
       <c r="Q15" t="n">
         <v>288.1147673275458</v>
@@ -32102,13 +32102,13 @@
         <v>140.1371854827082</v>
       </c>
       <c r="S15" t="n">
-        <v>41.92434165860898</v>
+        <v>41.92434165860897</v>
       </c>
       <c r="T15" t="n">
-        <v>9.097631637369933</v>
+        <v>9.097631637369931</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1484923553433614</v>
+        <v>0.1484923553433613</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,7 +32148,7 @@
         <v>1.892263238583161</v>
       </c>
       <c r="H16" t="n">
-        <v>16.82394043031212</v>
+        <v>16.82394043031211</v>
       </c>
       <c r="I16" t="n">
         <v>56.90551630211908</v>
@@ -32163,7 +32163,7 @@
         <v>281.327936398082</v>
       </c>
       <c r="M16" t="n">
-        <v>296.6208638444495</v>
+        <v>296.6208638444494</v>
       </c>
       <c r="N16" t="n">
         <v>289.5678826824579</v>
@@ -32172,19 +32172,19 @@
         <v>267.4628075771909</v>
       </c>
       <c r="P16" t="n">
-        <v>228.8606375100943</v>
+        <v>228.8606375100942</v>
       </c>
       <c r="Q16" t="n">
         <v>158.4512426417227</v>
       </c>
       <c r="R16" t="n">
-        <v>85.08303616393012</v>
+        <v>85.0830361639301</v>
       </c>
       <c r="S16" t="n">
-        <v>32.97698753058108</v>
+        <v>32.97698753058107</v>
       </c>
       <c r="T16" t="n">
-        <v>8.085124746673506</v>
+        <v>8.085124746673504</v>
       </c>
       <c r="U16" t="n">
         <v>0.1032143584681725</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M2" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>15.30273751513505</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P3" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>15.30273751513505</v>
@@ -34863,13 +34863,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O4" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M5" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>15.30273751513505</v>
@@ -35018,10 +35018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L6" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M6" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="M7" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="M7" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="N7" t="n">
         <v>15.30273751513505</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
         <v>25.62029119463083</v>
@@ -35267,7 +35267,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P9" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>176.9919977040147</v>
+        <v>346.0886128760885</v>
       </c>
       <c r="K11" t="n">
-        <v>640.6615652184745</v>
+        <v>493.1139874700393</v>
       </c>
       <c r="L11" t="n">
         <v>429.9407825589465</v>
@@ -35422,7 +35422,7 @@
         <v>523.3002074651865</v>
       </c>
       <c r="O11" t="n">
-        <v>502.2166234301673</v>
+        <v>480.6675860065288</v>
       </c>
       <c r="P11" t="n">
         <v>697.1878763732973</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K12" t="n">
         <v>226.6280974707432</v>
@@ -35507,7 +35507,7 @@
         <v>297.0296037149541</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.7692751147814</v>
+        <v>277.8603104551901</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837066</v>
       </c>
       <c r="K13" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L13" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056122</v>
       </c>
       <c r="M13" t="n">
         <v>386.477493653504</v>
@@ -35583,10 +35583,10 @@
         <v>342.3206883384445</v>
       </c>
       <c r="P13" t="n">
-        <v>276.4119496222016</v>
+        <v>276.4119496222017</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>346.0886128760885</v>
+        <v>346.0886128760883</v>
       </c>
       <c r="K14" t="n">
-        <v>316.5161526473098</v>
+        <v>377.5657712295386</v>
       </c>
       <c r="L14" t="n">
-        <v>847.601997109397</v>
+        <v>429.9407825589463</v>
       </c>
       <c r="M14" t="n">
-        <v>510.3812920684348</v>
+        <v>510.3812920684347</v>
       </c>
       <c r="N14" t="n">
-        <v>816.3505265688519</v>
+        <v>960.6471318771706</v>
       </c>
       <c r="O14" t="n">
-        <v>480.6675860065288</v>
+        <v>480.6675860065286</v>
       </c>
       <c r="P14" t="n">
-        <v>375.3891682018147</v>
+        <v>375.3891682018146</v>
       </c>
       <c r="Q14" t="n">
-        <v>233.242291857424</v>
+        <v>445.5572825173286</v>
       </c>
       <c r="R14" t="n">
-        <v>49.40332359471654</v>
+        <v>49.40332359471648</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>212.4983304371652</v>
+        <v>86.40729509675634</v>
       </c>
       <c r="K15" t="n">
         <v>226.6280974707432</v>
       </c>
       <c r="L15" t="n">
-        <v>351.5198903049993</v>
+        <v>481.2472075186654</v>
       </c>
       <c r="M15" t="n">
-        <v>429.7595239570471</v>
+        <v>429.759523957047</v>
       </c>
       <c r="N15" t="n">
-        <v>455.6881665503988</v>
+        <v>455.6881665503987</v>
       </c>
       <c r="O15" t="n">
-        <v>394.4214089096436</v>
+        <v>394.4214089096434</v>
       </c>
       <c r="P15" t="n">
-        <v>297.0296037149541</v>
+        <v>297.029603714954</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.7692751147814</v>
+        <v>148.1329932415243</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.69658369837066</v>
+        <v>90.69658369837062</v>
       </c>
       <c r="K16" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L16" t="n">
-        <v>359.1907145056122</v>
+        <v>359.190714505612</v>
       </c>
       <c r="M16" t="n">
         <v>386.477493653504</v>
@@ -35820,7 +35820,7 @@
         <v>342.3206883384445</v>
       </c>
       <c r="P16" t="n">
-        <v>276.4119496222017</v>
+        <v>276.4119496222016</v>
       </c>
       <c r="Q16" t="n">
         <v>122.5619522372423</v>
@@ -35884,13 +35884,13 @@
         <v>346.0886128760885</v>
       </c>
       <c r="K17" t="n">
-        <v>427.3975675970573</v>
+        <v>640.6615652184745</v>
       </c>
       <c r="L17" t="n">
         <v>429.9407825589465</v>
       </c>
       <c r="M17" t="n">
-        <v>510.3812920684348</v>
+        <v>896.9474131513871</v>
       </c>
       <c r="N17" t="n">
         <v>523.3002074651865</v>
@@ -35899,13 +35899,13 @@
         <v>480.6675860065288</v>
       </c>
       <c r="P17" t="n">
-        <v>697.1878763732973</v>
+        <v>375.3891682018147</v>
       </c>
       <c r="Q17" t="n">
-        <v>445.5572825173287</v>
+        <v>233.242291857424</v>
       </c>
       <c r="R17" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.69658369837066</v>
+        <v>90.69658369837062</v>
       </c>
       <c r="K19" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L19" t="n">
-        <v>359.1907145056122</v>
+        <v>359.1907145056121</v>
       </c>
       <c r="M19" t="n">
         <v>386.477493653504</v>
@@ -36057,7 +36057,7 @@
         <v>342.3206883384445</v>
       </c>
       <c r="P19" t="n">
-        <v>276.4119496222017</v>
+        <v>276.4119496222016</v>
       </c>
       <c r="Q19" t="n">
         <v>122.5619522372423</v>
@@ -36121,7 +36121,7 @@
         <v>176.9919977040147</v>
       </c>
       <c r="K20" t="n">
-        <v>640.6615652184745</v>
+        <v>493.7254120392726</v>
       </c>
       <c r="L20" t="n">
         <v>429.9407825589465</v>
@@ -36133,16 +36133,16 @@
         <v>523.3002074651865</v>
       </c>
       <c r="O20" t="n">
-        <v>480.6675860065288</v>
+        <v>861.4677672692742</v>
       </c>
       <c r="P20" t="n">
-        <v>653.0204939239539</v>
+        <v>697.1878763732973</v>
       </c>
       <c r="Q20" t="n">
-        <v>445.5572825173287</v>
+        <v>233.242291857424</v>
       </c>
       <c r="R20" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K21" t="n">
         <v>226.6280974707432</v>
@@ -36206,13 +36206,13 @@
         <v>351.5198903049993</v>
       </c>
       <c r="M21" t="n">
-        <v>429.7595239570471</v>
+        <v>559.486841170713</v>
       </c>
       <c r="N21" t="n">
         <v>455.6881665503988</v>
       </c>
       <c r="O21" t="n">
-        <v>398.0576907829005</v>
+        <v>394.4214089096436</v>
       </c>
       <c r="P21" t="n">
         <v>297.0296037149541</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.69658369837066</v>
+        <v>90.69658369837062</v>
       </c>
       <c r="K22" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L22" t="n">
-        <v>359.1907145056122</v>
+        <v>359.1907145056121</v>
       </c>
       <c r="M22" t="n">
         <v>386.477493653504</v>
@@ -36291,10 +36291,10 @@
         <v>383.9728079089004</v>
       </c>
       <c r="O22" t="n">
-        <v>342.320688338444</v>
+        <v>342.3206883384445</v>
       </c>
       <c r="P22" t="n">
-        <v>276.4119496222017</v>
+        <v>276.4119496222016</v>
       </c>
       <c r="Q22" t="n">
         <v>122.5619522372423</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>346.0886128760885</v>
+        <v>238.653040855476</v>
       </c>
       <c r="K23" t="n">
         <v>316.5161526473098</v>
@@ -36364,22 +36364,22 @@
         <v>429.9407825589465</v>
       </c>
       <c r="M23" t="n">
-        <v>959.8948255612673</v>
+        <v>510.3812920684348</v>
       </c>
       <c r="N23" t="n">
-        <v>523.3002074651865</v>
+        <v>960.6471318771708</v>
       </c>
       <c r="O23" t="n">
-        <v>480.6675860065288</v>
+        <v>861.4677672692742</v>
       </c>
       <c r="P23" t="n">
         <v>375.3891682018147</v>
       </c>
       <c r="Q23" t="n">
-        <v>428.7238721457263</v>
+        <v>233.242291857424</v>
       </c>
       <c r="R23" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K24" t="n">
-        <v>230.2643793440003</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L24" t="n">
         <v>351.5198903049993</v>
@@ -36455,7 +36455,7 @@
         <v>297.0296037149541</v>
       </c>
       <c r="Q24" t="n">
-        <v>148.1329932415243</v>
+        <v>277.8603104551901</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.69658369837066</v>
+        <v>90.69658369837062</v>
       </c>
       <c r="K25" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L25" t="n">
-        <v>359.1907145056122</v>
+        <v>359.1907145056121</v>
       </c>
       <c r="M25" t="n">
         <v>386.477493653504</v>
@@ -36528,10 +36528,10 @@
         <v>383.9728079089004</v>
       </c>
       <c r="O25" t="n">
-        <v>342.3206883384445</v>
+        <v>342.3206883384449</v>
       </c>
       <c r="P25" t="n">
-        <v>276.4119496222017</v>
+        <v>276.4119496222016</v>
       </c>
       <c r="Q25" t="n">
         <v>122.5619522372423</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K26" t="n">
-        <v>640.6615652184745</v>
+        <v>316.5161526473098</v>
       </c>
       <c r="L26" t="n">
-        <v>602.8000014553515</v>
+        <v>429.9407825589465</v>
       </c>
       <c r="M26" t="n">
-        <v>510.3812920684348</v>
+        <v>959.8948255612673</v>
       </c>
       <c r="N26" t="n">
-        <v>523.3002074651865</v>
+        <v>805.6043404849811</v>
       </c>
       <c r="O26" t="n">
         <v>861.4677672692742</v>
@@ -36616,7 +36616,7 @@
         <v>445.5572825173287</v>
       </c>
       <c r="R26" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K27" t="n">
-        <v>230.2643793440002</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L27" t="n">
         <v>351.5198903049993</v>
@@ -36692,7 +36692,7 @@
         <v>297.0296037149541</v>
       </c>
       <c r="Q27" t="n">
-        <v>148.1329932415243</v>
+        <v>277.8603104551901</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K29" t="n">
-        <v>640.6615652184745</v>
+        <v>316.5161526473098</v>
       </c>
       <c r="L29" t="n">
-        <v>429.9407825589465</v>
+        <v>658.6951047866077</v>
       </c>
       <c r="M29" t="n">
         <v>510.3812920684348</v>
       </c>
       <c r="N29" t="n">
-        <v>696.1594263615931</v>
+        <v>960.6471318771708</v>
       </c>
       <c r="O29" t="n">
         <v>861.4677672692742</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K30" t="n">
-        <v>230.2643793440002</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L30" t="n">
         <v>351.5198903049993</v>
@@ -36926,7 +36926,7 @@
         <v>394.4214089096436</v>
       </c>
       <c r="P30" t="n">
-        <v>297.0296037149541</v>
+        <v>426.7569209286198</v>
       </c>
       <c r="Q30" t="n">
         <v>148.1329932415243</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K32" t="n">
         <v>640.6615652184745</v>
@@ -37075,13 +37075,13 @@
         <v>429.9407825589465</v>
       </c>
       <c r="M32" t="n">
-        <v>510.3812920684348</v>
+        <v>754.9370391254338</v>
       </c>
       <c r="N32" t="n">
-        <v>655.3060824993472</v>
+        <v>960.6471318771708</v>
       </c>
       <c r="O32" t="n">
-        <v>861.4677672692742</v>
+        <v>480.6675860065288</v>
       </c>
       <c r="P32" t="n">
         <v>697.1878763732973</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K33" t="n">
-        <v>230.2643793440003</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L33" t="n">
-        <v>351.5198903049993</v>
+        <v>481.247207518665</v>
       </c>
       <c r="M33" t="n">
         <v>429.7595239570471</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.09318833911593</v>
+        <v>43.09318833911568</v>
       </c>
       <c r="K34" t="n">
-        <v>200.2464491992836</v>
+        <v>200.2464491992833</v>
       </c>
       <c r="L34" t="n">
-        <v>311.5873191463574</v>
+        <v>311.5873191463572</v>
       </c>
       <c r="M34" t="n">
-        <v>338.8740982942493</v>
+        <v>338.8740982942491</v>
       </c>
       <c r="N34" t="n">
-        <v>336.3694125496457</v>
+        <v>336.3694125496455</v>
       </c>
       <c r="O34" t="n">
-        <v>294.7172929791898</v>
+        <v>294.7172929791896</v>
       </c>
       <c r="P34" t="n">
-        <v>228.808554262947</v>
+        <v>228.8085542629467</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.95855687798756</v>
+        <v>74.95855687798732</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K35" t="n">
-        <v>316.5161526473098</v>
+        <v>640.6615652184745</v>
       </c>
       <c r="L35" t="n">
         <v>429.9407825589465</v>
       </c>
       <c r="M35" t="n">
-        <v>510.3812920684348</v>
+        <v>959.8948255612673</v>
       </c>
       <c r="N35" t="n">
-        <v>523.3002074651865</v>
+        <v>629.4494102273802</v>
       </c>
       <c r="O35" t="n">
-        <v>591.5490009562764</v>
+        <v>480.6675860065288</v>
       </c>
       <c r="P35" t="n">
-        <v>697.1878763732973</v>
+        <v>375.3891682018147</v>
       </c>
       <c r="Q35" t="n">
-        <v>445.5572825173287</v>
+        <v>233.242291857424</v>
       </c>
       <c r="R35" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>226.6280974707432</v>
       </c>
       <c r="L36" t="n">
-        <v>481.247207518665</v>
+        <v>351.5198903049993</v>
       </c>
       <c r="M36" t="n">
         <v>429.7595239570471</v>
@@ -37403,7 +37403,7 @@
         <v>297.0296037149541</v>
       </c>
       <c r="Q36" t="n">
-        <v>148.1329932415243</v>
+        <v>277.8603104551901</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K38" t="n">
-        <v>316.5161526473098</v>
+        <v>640.6615652184745</v>
       </c>
       <c r="L38" t="n">
         <v>429.9407825589465</v>
       </c>
       <c r="M38" t="n">
-        <v>510.3812920684348</v>
+        <v>959.8948255612673</v>
       </c>
       <c r="N38" t="n">
         <v>523.3002074651865</v>
       </c>
       <c r="O38" t="n">
-        <v>591.5490009562764</v>
+        <v>480.6675860065288</v>
       </c>
       <c r="P38" t="n">
-        <v>697.1878763732973</v>
+        <v>375.3891682018147</v>
       </c>
       <c r="Q38" t="n">
-        <v>445.5572825173287</v>
+        <v>339.3914946196173</v>
       </c>
       <c r="R38" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.4072950967564</v>
+        <v>212.4983304371652</v>
       </c>
       <c r="K39" t="n">
-        <v>356.3554146844091</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L39" t="n">
-        <v>351.5198903049993</v>
+        <v>355.1561721782562</v>
       </c>
       <c r="M39" t="n">
         <v>429.7595239570471</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K40" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L40" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056121</v>
       </c>
       <c r="M40" t="n">
         <v>386.477493653504</v>
@@ -37719,7 +37719,7 @@
         <v>276.4119496222016</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>346.0886128760885</v>
       </c>
       <c r="K41" t="n">
-        <v>427.3975675970573</v>
+        <v>316.5161526473098</v>
       </c>
       <c r="L41" t="n">
         <v>429.9407825589465</v>
@@ -37792,16 +37792,16 @@
         <v>523.3002074651865</v>
       </c>
       <c r="O41" t="n">
-        <v>480.6675860065288</v>
+        <v>861.4677672692742</v>
       </c>
       <c r="P41" t="n">
-        <v>697.1878763732973</v>
+        <v>492.9855299332817</v>
       </c>
       <c r="Q41" t="n">
         <v>445.5572825173287</v>
       </c>
       <c r="R41" t="n">
-        <v>115.119743467699</v>
+        <v>49.40332359471654</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K42" t="n">
-        <v>230.2643793440003</v>
+        <v>226.6280974707432</v>
       </c>
       <c r="L42" t="n">
-        <v>351.5198903049993</v>
+        <v>481.247207518665</v>
       </c>
       <c r="M42" t="n">
         <v>429.7595239570471</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K43" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L43" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056122</v>
       </c>
       <c r="M43" t="n">
         <v>386.477493653504</v>
@@ -37956,7 +37956,7 @@
         <v>276.4119496222016</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>346.0886128760885</v>
+        <v>176.9919977040147</v>
       </c>
       <c r="K44" t="n">
         <v>316.5161526473098</v>
@@ -38023,19 +38023,19 @@
         <v>429.9407825589465</v>
       </c>
       <c r="M44" t="n">
-        <v>510.3812920684348</v>
+        <v>959.8948255612673</v>
       </c>
       <c r="N44" t="n">
-        <v>523.3002074651865</v>
+        <v>887.878402925562</v>
       </c>
       <c r="O44" t="n">
-        <v>591.5490009562764</v>
+        <v>480.6675860065288</v>
       </c>
       <c r="P44" t="n">
-        <v>697.1878763732973</v>
+        <v>375.3891682018147</v>
       </c>
       <c r="Q44" t="n">
-        <v>445.5572825173287</v>
+        <v>233.242291857424</v>
       </c>
       <c r="R44" t="n">
         <v>115.119743467699</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>212.4983304371652</v>
+        <v>86.4072950967564</v>
       </c>
       <c r="K45" t="n">
         <v>226.6280974707432</v>
@@ -38102,10 +38102,10 @@
         <v>351.5198903049993</v>
       </c>
       <c r="M45" t="n">
-        <v>433.3958058303041</v>
+        <v>429.7595239570471</v>
       </c>
       <c r="N45" t="n">
-        <v>455.6881665503988</v>
+        <v>585.4154837640647</v>
       </c>
       <c r="O45" t="n">
         <v>394.4214089096436</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.6965836983706</v>
+        <v>90.69658369837063</v>
       </c>
       <c r="K46" t="n">
         <v>247.8498445585383</v>
       </c>
       <c r="L46" t="n">
-        <v>359.190714505612</v>
+        <v>359.1907145056121</v>
       </c>
       <c r="M46" t="n">
         <v>386.477493653504</v>
@@ -38193,7 +38193,7 @@
         <v>276.4119496222016</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.5619522372422</v>
+        <v>122.5619522372423</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
